--- a/extraction/etape2bis_conversion.xlsx
+++ b/extraction/etape2bis_conversion.xlsx
@@ -1190,25 +1190,25 @@
     <t>Fluphenazine Dihydrochloride</t>
   </si>
   <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>PRC_0050</t>
+  </si>
+  <si>
+    <t>Metaraminol (+)-Bitartrate</t>
+  </si>
+  <si>
     <t>I21</t>
   </si>
   <si>
-    <t>PRC_0050</t>
-  </si>
-  <si>
-    <t>Metaraminol (+)-Bitartrate</t>
+    <t>PRC_0130</t>
+  </si>
+  <si>
+    <t>Xylometazoline Hydrochloride</t>
   </si>
   <si>
     <t>I22</t>
-  </si>
-  <si>
-    <t>PRC_0130</t>
-  </si>
-  <si>
-    <t>Xylometazoline Hydrochloride</t>
-  </si>
-  <si>
-    <t>IB0</t>
   </si>
   <si>
     <t>PRC_0129</t>
@@ -9905,7 +9905,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D1900"/>
+  <dimension ref="A1:D3200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -32127,6 +32127,3906 @@
     <row r="1900" spans="1:4">
       <c r="A1900"/>
     </row>
+    <row r="1901" spans="1:4">
+      <c r="A1901"/>
+    </row>
+    <row r="1902" spans="1:4">
+      <c r="A1902"/>
+    </row>
+    <row r="1903" spans="1:4">
+      <c r="A1903"/>
+    </row>
+    <row r="1904" spans="1:4">
+      <c r="A1904"/>
+    </row>
+    <row r="1905" spans="1:4">
+      <c r="A1905"/>
+    </row>
+    <row r="1906" spans="1:4">
+      <c r="A1906"/>
+    </row>
+    <row r="1907" spans="1:4">
+      <c r="A1907"/>
+    </row>
+    <row r="1908" spans="1:4">
+      <c r="A1908"/>
+    </row>
+    <row r="1909" spans="1:4">
+      <c r="A1909"/>
+    </row>
+    <row r="1910" spans="1:4">
+      <c r="A1910"/>
+    </row>
+    <row r="1911" spans="1:4">
+      <c r="A1911"/>
+    </row>
+    <row r="1912" spans="1:4">
+      <c r="A1912"/>
+    </row>
+    <row r="1913" spans="1:4">
+      <c r="A1913"/>
+    </row>
+    <row r="1914" spans="1:4">
+      <c r="A1914"/>
+    </row>
+    <row r="1915" spans="1:4">
+      <c r="A1915"/>
+    </row>
+    <row r="1916" spans="1:4">
+      <c r="A1916"/>
+    </row>
+    <row r="1917" spans="1:4">
+      <c r="A1917"/>
+    </row>
+    <row r="1918" spans="1:4">
+      <c r="A1918"/>
+    </row>
+    <row r="1919" spans="1:4">
+      <c r="A1919"/>
+    </row>
+    <row r="1920" spans="1:4">
+      <c r="A1920"/>
+    </row>
+    <row r="1921" spans="1:4">
+      <c r="A1921"/>
+    </row>
+    <row r="1922" spans="1:4">
+      <c r="A1922"/>
+    </row>
+    <row r="1923" spans="1:4">
+      <c r="A1923"/>
+    </row>
+    <row r="1924" spans="1:4">
+      <c r="A1924"/>
+    </row>
+    <row r="1925" spans="1:4">
+      <c r="A1925"/>
+    </row>
+    <row r="1926" spans="1:4">
+      <c r="A1926"/>
+    </row>
+    <row r="1927" spans="1:4">
+      <c r="A1927"/>
+    </row>
+    <row r="1928" spans="1:4">
+      <c r="A1928"/>
+    </row>
+    <row r="1929" spans="1:4">
+      <c r="A1929"/>
+    </row>
+    <row r="1930" spans="1:4">
+      <c r="A1930"/>
+    </row>
+    <row r="1931" spans="1:4">
+      <c r="A1931"/>
+    </row>
+    <row r="1932" spans="1:4">
+      <c r="A1932"/>
+    </row>
+    <row r="1933" spans="1:4">
+      <c r="A1933"/>
+    </row>
+    <row r="1934" spans="1:4">
+      <c r="A1934"/>
+    </row>
+    <row r="1935" spans="1:4">
+      <c r="A1935"/>
+    </row>
+    <row r="1936" spans="1:4">
+      <c r="A1936"/>
+    </row>
+    <row r="1937" spans="1:4">
+      <c r="A1937"/>
+    </row>
+    <row r="1938" spans="1:4">
+      <c r="A1938"/>
+    </row>
+    <row r="1939" spans="1:4">
+      <c r="A1939"/>
+    </row>
+    <row r="1940" spans="1:4">
+      <c r="A1940"/>
+    </row>
+    <row r="1941" spans="1:4">
+      <c r="A1941"/>
+    </row>
+    <row r="1942" spans="1:4">
+      <c r="A1942"/>
+    </row>
+    <row r="1943" spans="1:4">
+      <c r="A1943"/>
+    </row>
+    <row r="1944" spans="1:4">
+      <c r="A1944"/>
+    </row>
+    <row r="1945" spans="1:4">
+      <c r="A1945"/>
+    </row>
+    <row r="1946" spans="1:4">
+      <c r="A1946"/>
+    </row>
+    <row r="1947" spans="1:4">
+      <c r="A1947"/>
+    </row>
+    <row r="1948" spans="1:4">
+      <c r="A1948"/>
+    </row>
+    <row r="1949" spans="1:4">
+      <c r="A1949"/>
+    </row>
+    <row r="1950" spans="1:4">
+      <c r="A1950"/>
+    </row>
+    <row r="1951" spans="1:4">
+      <c r="A1951"/>
+    </row>
+    <row r="1952" spans="1:4">
+      <c r="A1952"/>
+    </row>
+    <row r="1953" spans="1:4">
+      <c r="A1953"/>
+    </row>
+    <row r="1954" spans="1:4">
+      <c r="A1954"/>
+    </row>
+    <row r="1955" spans="1:4">
+      <c r="A1955"/>
+    </row>
+    <row r="1956" spans="1:4">
+      <c r="A1956"/>
+    </row>
+    <row r="1957" spans="1:4">
+      <c r="A1957"/>
+    </row>
+    <row r="1958" spans="1:4">
+      <c r="A1958"/>
+    </row>
+    <row r="1959" spans="1:4">
+      <c r="A1959"/>
+    </row>
+    <row r="1960" spans="1:4">
+      <c r="A1960"/>
+    </row>
+    <row r="1961" spans="1:4">
+      <c r="A1961"/>
+    </row>
+    <row r="1962" spans="1:4">
+      <c r="A1962"/>
+    </row>
+    <row r="1963" spans="1:4">
+      <c r="A1963"/>
+    </row>
+    <row r="1964" spans="1:4">
+      <c r="A1964"/>
+    </row>
+    <row r="1965" spans="1:4">
+      <c r="A1965"/>
+    </row>
+    <row r="1966" spans="1:4">
+      <c r="A1966"/>
+    </row>
+    <row r="1967" spans="1:4">
+      <c r="A1967"/>
+    </row>
+    <row r="1968" spans="1:4">
+      <c r="A1968"/>
+    </row>
+    <row r="1969" spans="1:4">
+      <c r="A1969"/>
+    </row>
+    <row r="1970" spans="1:4">
+      <c r="A1970"/>
+    </row>
+    <row r="1971" spans="1:4">
+      <c r="A1971"/>
+    </row>
+    <row r="1972" spans="1:4">
+      <c r="A1972"/>
+    </row>
+    <row r="1973" spans="1:4">
+      <c r="A1973"/>
+    </row>
+    <row r="1974" spans="1:4">
+      <c r="A1974"/>
+    </row>
+    <row r="1975" spans="1:4">
+      <c r="A1975"/>
+    </row>
+    <row r="1976" spans="1:4">
+      <c r="A1976"/>
+    </row>
+    <row r="1977" spans="1:4">
+      <c r="A1977"/>
+    </row>
+    <row r="1978" spans="1:4">
+      <c r="A1978"/>
+    </row>
+    <row r="1979" spans="1:4">
+      <c r="A1979"/>
+    </row>
+    <row r="1980" spans="1:4">
+      <c r="A1980"/>
+    </row>
+    <row r="1981" spans="1:4">
+      <c r="A1981"/>
+    </row>
+    <row r="1982" spans="1:4">
+      <c r="A1982"/>
+    </row>
+    <row r="1983" spans="1:4">
+      <c r="A1983"/>
+    </row>
+    <row r="1984" spans="1:4">
+      <c r="A1984"/>
+    </row>
+    <row r="1985" spans="1:4">
+      <c r="A1985"/>
+    </row>
+    <row r="1986" spans="1:4">
+      <c r="A1986"/>
+    </row>
+    <row r="1987" spans="1:4">
+      <c r="A1987"/>
+    </row>
+    <row r="1988" spans="1:4">
+      <c r="A1988"/>
+    </row>
+    <row r="1989" spans="1:4">
+      <c r="A1989"/>
+    </row>
+    <row r="1990" spans="1:4">
+      <c r="A1990"/>
+    </row>
+    <row r="1991" spans="1:4">
+      <c r="A1991"/>
+    </row>
+    <row r="1992" spans="1:4">
+      <c r="A1992"/>
+    </row>
+    <row r="1993" spans="1:4">
+      <c r="A1993"/>
+    </row>
+    <row r="1994" spans="1:4">
+      <c r="A1994"/>
+    </row>
+    <row r="1995" spans="1:4">
+      <c r="A1995"/>
+    </row>
+    <row r="1996" spans="1:4">
+      <c r="A1996"/>
+    </row>
+    <row r="1997" spans="1:4">
+      <c r="A1997"/>
+    </row>
+    <row r="1998" spans="1:4">
+      <c r="A1998"/>
+    </row>
+    <row r="1999" spans="1:4">
+      <c r="A1999"/>
+    </row>
+    <row r="2000" spans="1:4">
+      <c r="A2000"/>
+    </row>
+    <row r="2001" spans="1:4">
+      <c r="A2001"/>
+    </row>
+    <row r="2002" spans="1:4">
+      <c r="A2002"/>
+    </row>
+    <row r="2003" spans="1:4">
+      <c r="A2003"/>
+    </row>
+    <row r="2004" spans="1:4">
+      <c r="A2004"/>
+    </row>
+    <row r="2005" spans="1:4">
+      <c r="A2005"/>
+    </row>
+    <row r="2006" spans="1:4">
+      <c r="A2006"/>
+    </row>
+    <row r="2007" spans="1:4">
+      <c r="A2007"/>
+    </row>
+    <row r="2008" spans="1:4">
+      <c r="A2008"/>
+    </row>
+    <row r="2009" spans="1:4">
+      <c r="A2009"/>
+    </row>
+    <row r="2010" spans="1:4">
+      <c r="A2010"/>
+    </row>
+    <row r="2011" spans="1:4">
+      <c r="A2011"/>
+    </row>
+    <row r="2012" spans="1:4">
+      <c r="A2012"/>
+    </row>
+    <row r="2013" spans="1:4">
+      <c r="A2013"/>
+    </row>
+    <row r="2014" spans="1:4">
+      <c r="A2014"/>
+    </row>
+    <row r="2015" spans="1:4">
+      <c r="A2015"/>
+    </row>
+    <row r="2016" spans="1:4">
+      <c r="A2016"/>
+    </row>
+    <row r="2017" spans="1:4">
+      <c r="A2017"/>
+    </row>
+    <row r="2018" spans="1:4">
+      <c r="A2018"/>
+    </row>
+    <row r="2019" spans="1:4">
+      <c r="A2019"/>
+    </row>
+    <row r="2020" spans="1:4">
+      <c r="A2020"/>
+    </row>
+    <row r="2021" spans="1:4">
+      <c r="A2021"/>
+    </row>
+    <row r="2022" spans="1:4">
+      <c r="A2022"/>
+    </row>
+    <row r="2023" spans="1:4">
+      <c r="A2023"/>
+    </row>
+    <row r="2024" spans="1:4">
+      <c r="A2024"/>
+    </row>
+    <row r="2025" spans="1:4">
+      <c r="A2025"/>
+    </row>
+    <row r="2026" spans="1:4">
+      <c r="A2026"/>
+    </row>
+    <row r="2027" spans="1:4">
+      <c r="A2027"/>
+    </row>
+    <row r="2028" spans="1:4">
+      <c r="A2028"/>
+    </row>
+    <row r="2029" spans="1:4">
+      <c r="A2029"/>
+    </row>
+    <row r="2030" spans="1:4">
+      <c r="A2030"/>
+    </row>
+    <row r="2031" spans="1:4">
+      <c r="A2031"/>
+    </row>
+    <row r="2032" spans="1:4">
+      <c r="A2032"/>
+    </row>
+    <row r="2033" spans="1:4">
+      <c r="A2033"/>
+    </row>
+    <row r="2034" spans="1:4">
+      <c r="A2034"/>
+    </row>
+    <row r="2035" spans="1:4">
+      <c r="A2035"/>
+    </row>
+    <row r="2036" spans="1:4">
+      <c r="A2036"/>
+    </row>
+    <row r="2037" spans="1:4">
+      <c r="A2037"/>
+    </row>
+    <row r="2038" spans="1:4">
+      <c r="A2038"/>
+    </row>
+    <row r="2039" spans="1:4">
+      <c r="A2039"/>
+    </row>
+    <row r="2040" spans="1:4">
+      <c r="A2040"/>
+    </row>
+    <row r="2041" spans="1:4">
+      <c r="A2041"/>
+    </row>
+    <row r="2042" spans="1:4">
+      <c r="A2042"/>
+    </row>
+    <row r="2043" spans="1:4">
+      <c r="A2043"/>
+    </row>
+    <row r="2044" spans="1:4">
+      <c r="A2044"/>
+    </row>
+    <row r="2045" spans="1:4">
+      <c r="A2045"/>
+    </row>
+    <row r="2046" spans="1:4">
+      <c r="A2046"/>
+    </row>
+    <row r="2047" spans="1:4">
+      <c r="A2047"/>
+    </row>
+    <row r="2048" spans="1:4">
+      <c r="A2048"/>
+    </row>
+    <row r="2049" spans="1:4">
+      <c r="A2049"/>
+    </row>
+    <row r="2050" spans="1:4">
+      <c r="A2050"/>
+    </row>
+    <row r="2051" spans="1:4">
+      <c r="A2051"/>
+    </row>
+    <row r="2052" spans="1:4">
+      <c r="A2052"/>
+    </row>
+    <row r="2053" spans="1:4">
+      <c r="A2053"/>
+    </row>
+    <row r="2054" spans="1:4">
+      <c r="A2054"/>
+    </row>
+    <row r="2055" spans="1:4">
+      <c r="A2055"/>
+    </row>
+    <row r="2056" spans="1:4">
+      <c r="A2056"/>
+    </row>
+    <row r="2057" spans="1:4">
+      <c r="A2057"/>
+    </row>
+    <row r="2058" spans="1:4">
+      <c r="A2058"/>
+    </row>
+    <row r="2059" spans="1:4">
+      <c r="A2059"/>
+    </row>
+    <row r="2060" spans="1:4">
+      <c r="A2060"/>
+    </row>
+    <row r="2061" spans="1:4">
+      <c r="A2061"/>
+    </row>
+    <row r="2062" spans="1:4">
+      <c r="A2062"/>
+    </row>
+    <row r="2063" spans="1:4">
+      <c r="A2063"/>
+    </row>
+    <row r="2064" spans="1:4">
+      <c r="A2064"/>
+    </row>
+    <row r="2065" spans="1:4">
+      <c r="A2065"/>
+    </row>
+    <row r="2066" spans="1:4">
+      <c r="A2066"/>
+    </row>
+    <row r="2067" spans="1:4">
+      <c r="A2067"/>
+    </row>
+    <row r="2068" spans="1:4">
+      <c r="A2068"/>
+    </row>
+    <row r="2069" spans="1:4">
+      <c r="A2069"/>
+    </row>
+    <row r="2070" spans="1:4">
+      <c r="A2070"/>
+    </row>
+    <row r="2071" spans="1:4">
+      <c r="A2071"/>
+    </row>
+    <row r="2072" spans="1:4">
+      <c r="A2072"/>
+    </row>
+    <row r="2073" spans="1:4">
+      <c r="A2073"/>
+    </row>
+    <row r="2074" spans="1:4">
+      <c r="A2074"/>
+    </row>
+    <row r="2075" spans="1:4">
+      <c r="A2075"/>
+    </row>
+    <row r="2076" spans="1:4">
+      <c r="A2076"/>
+    </row>
+    <row r="2077" spans="1:4">
+      <c r="A2077"/>
+    </row>
+    <row r="2078" spans="1:4">
+      <c r="A2078"/>
+    </row>
+    <row r="2079" spans="1:4">
+      <c r="A2079"/>
+    </row>
+    <row r="2080" spans="1:4">
+      <c r="A2080"/>
+    </row>
+    <row r="2081" spans="1:4">
+      <c r="A2081"/>
+    </row>
+    <row r="2082" spans="1:4">
+      <c r="A2082"/>
+    </row>
+    <row r="2083" spans="1:4">
+      <c r="A2083"/>
+    </row>
+    <row r="2084" spans="1:4">
+      <c r="A2084"/>
+    </row>
+    <row r="2085" spans="1:4">
+      <c r="A2085"/>
+    </row>
+    <row r="2086" spans="1:4">
+      <c r="A2086"/>
+    </row>
+    <row r="2087" spans="1:4">
+      <c r="A2087"/>
+    </row>
+    <row r="2088" spans="1:4">
+      <c r="A2088"/>
+    </row>
+    <row r="2089" spans="1:4">
+      <c r="A2089"/>
+    </row>
+    <row r="2090" spans="1:4">
+      <c r="A2090"/>
+    </row>
+    <row r="2091" spans="1:4">
+      <c r="A2091"/>
+    </row>
+    <row r="2092" spans="1:4">
+      <c r="A2092"/>
+    </row>
+    <row r="2093" spans="1:4">
+      <c r="A2093"/>
+    </row>
+    <row r="2094" spans="1:4">
+      <c r="A2094"/>
+    </row>
+    <row r="2095" spans="1:4">
+      <c r="A2095"/>
+    </row>
+    <row r="2096" spans="1:4">
+      <c r="A2096"/>
+    </row>
+    <row r="2097" spans="1:4">
+      <c r="A2097"/>
+    </row>
+    <row r="2098" spans="1:4">
+      <c r="A2098"/>
+    </row>
+    <row r="2099" spans="1:4">
+      <c r="A2099"/>
+    </row>
+    <row r="2100" spans="1:4">
+      <c r="A2100"/>
+    </row>
+    <row r="2101" spans="1:4">
+      <c r="A2101"/>
+    </row>
+    <row r="2102" spans="1:4">
+      <c r="A2102"/>
+    </row>
+    <row r="2103" spans="1:4">
+      <c r="A2103"/>
+    </row>
+    <row r="2104" spans="1:4">
+      <c r="A2104"/>
+    </row>
+    <row r="2105" spans="1:4">
+      <c r="A2105"/>
+    </row>
+    <row r="2106" spans="1:4">
+      <c r="A2106"/>
+    </row>
+    <row r="2107" spans="1:4">
+      <c r="A2107"/>
+    </row>
+    <row r="2108" spans="1:4">
+      <c r="A2108"/>
+    </row>
+    <row r="2109" spans="1:4">
+      <c r="A2109"/>
+    </row>
+    <row r="2110" spans="1:4">
+      <c r="A2110"/>
+    </row>
+    <row r="2111" spans="1:4">
+      <c r="A2111"/>
+    </row>
+    <row r="2112" spans="1:4">
+      <c r="A2112"/>
+    </row>
+    <row r="2113" spans="1:4">
+      <c r="A2113"/>
+    </row>
+    <row r="2114" spans="1:4">
+      <c r="A2114"/>
+    </row>
+    <row r="2115" spans="1:4">
+      <c r="A2115"/>
+    </row>
+    <row r="2116" spans="1:4">
+      <c r="A2116"/>
+    </row>
+    <row r="2117" spans="1:4">
+      <c r="A2117"/>
+    </row>
+    <row r="2118" spans="1:4">
+      <c r="A2118"/>
+    </row>
+    <row r="2119" spans="1:4">
+      <c r="A2119"/>
+    </row>
+    <row r="2120" spans="1:4">
+      <c r="A2120"/>
+    </row>
+    <row r="2121" spans="1:4">
+      <c r="A2121"/>
+    </row>
+    <row r="2122" spans="1:4">
+      <c r="A2122"/>
+    </row>
+    <row r="2123" spans="1:4">
+      <c r="A2123"/>
+    </row>
+    <row r="2124" spans="1:4">
+      <c r="A2124"/>
+    </row>
+    <row r="2125" spans="1:4">
+      <c r="A2125"/>
+    </row>
+    <row r="2126" spans="1:4">
+      <c r="A2126"/>
+    </row>
+    <row r="2127" spans="1:4">
+      <c r="A2127"/>
+    </row>
+    <row r="2128" spans="1:4">
+      <c r="A2128"/>
+    </row>
+    <row r="2129" spans="1:4">
+      <c r="A2129"/>
+    </row>
+    <row r="2130" spans="1:4">
+      <c r="A2130"/>
+    </row>
+    <row r="2131" spans="1:4">
+      <c r="A2131"/>
+    </row>
+    <row r="2132" spans="1:4">
+      <c r="A2132"/>
+    </row>
+    <row r="2133" spans="1:4">
+      <c r="A2133"/>
+    </row>
+    <row r="2134" spans="1:4">
+      <c r="A2134"/>
+    </row>
+    <row r="2135" spans="1:4">
+      <c r="A2135"/>
+    </row>
+    <row r="2136" spans="1:4">
+      <c r="A2136"/>
+    </row>
+    <row r="2137" spans="1:4">
+      <c r="A2137"/>
+    </row>
+    <row r="2138" spans="1:4">
+      <c r="A2138"/>
+    </row>
+    <row r="2139" spans="1:4">
+      <c r="A2139"/>
+    </row>
+    <row r="2140" spans="1:4">
+      <c r="A2140"/>
+    </row>
+    <row r="2141" spans="1:4">
+      <c r="A2141"/>
+    </row>
+    <row r="2142" spans="1:4">
+      <c r="A2142"/>
+    </row>
+    <row r="2143" spans="1:4">
+      <c r="A2143"/>
+    </row>
+    <row r="2144" spans="1:4">
+      <c r="A2144"/>
+    </row>
+    <row r="2145" spans="1:4">
+      <c r="A2145"/>
+    </row>
+    <row r="2146" spans="1:4">
+      <c r="A2146"/>
+    </row>
+    <row r="2147" spans="1:4">
+      <c r="A2147"/>
+    </row>
+    <row r="2148" spans="1:4">
+      <c r="A2148"/>
+    </row>
+    <row r="2149" spans="1:4">
+      <c r="A2149"/>
+    </row>
+    <row r="2150" spans="1:4">
+      <c r="A2150"/>
+    </row>
+    <row r="2151" spans="1:4">
+      <c r="A2151"/>
+    </row>
+    <row r="2152" spans="1:4">
+      <c r="A2152"/>
+    </row>
+    <row r="2153" spans="1:4">
+      <c r="A2153"/>
+    </row>
+    <row r="2154" spans="1:4">
+      <c r="A2154"/>
+    </row>
+    <row r="2155" spans="1:4">
+      <c r="A2155"/>
+    </row>
+    <row r="2156" spans="1:4">
+      <c r="A2156"/>
+    </row>
+    <row r="2157" spans="1:4">
+      <c r="A2157"/>
+    </row>
+    <row r="2158" spans="1:4">
+      <c r="A2158"/>
+    </row>
+    <row r="2159" spans="1:4">
+      <c r="A2159"/>
+    </row>
+    <row r="2160" spans="1:4">
+      <c r="A2160"/>
+    </row>
+    <row r="2161" spans="1:4">
+      <c r="A2161"/>
+    </row>
+    <row r="2162" spans="1:4">
+      <c r="A2162"/>
+    </row>
+    <row r="2163" spans="1:4">
+      <c r="A2163"/>
+    </row>
+    <row r="2164" spans="1:4">
+      <c r="A2164"/>
+    </row>
+    <row r="2165" spans="1:4">
+      <c r="A2165"/>
+    </row>
+    <row r="2166" spans="1:4">
+      <c r="A2166"/>
+    </row>
+    <row r="2167" spans="1:4">
+      <c r="A2167"/>
+    </row>
+    <row r="2168" spans="1:4">
+      <c r="A2168"/>
+    </row>
+    <row r="2169" spans="1:4">
+      <c r="A2169"/>
+    </row>
+    <row r="2170" spans="1:4">
+      <c r="A2170"/>
+    </row>
+    <row r="2171" spans="1:4">
+      <c r="A2171"/>
+    </row>
+    <row r="2172" spans="1:4">
+      <c r="A2172"/>
+    </row>
+    <row r="2173" spans="1:4">
+      <c r="A2173"/>
+    </row>
+    <row r="2174" spans="1:4">
+      <c r="A2174"/>
+    </row>
+    <row r="2175" spans="1:4">
+      <c r="A2175"/>
+    </row>
+    <row r="2176" spans="1:4">
+      <c r="A2176"/>
+    </row>
+    <row r="2177" spans="1:4">
+      <c r="A2177"/>
+    </row>
+    <row r="2178" spans="1:4">
+      <c r="A2178"/>
+    </row>
+    <row r="2179" spans="1:4">
+      <c r="A2179"/>
+    </row>
+    <row r="2180" spans="1:4">
+      <c r="A2180"/>
+    </row>
+    <row r="2181" spans="1:4">
+      <c r="A2181"/>
+    </row>
+    <row r="2182" spans="1:4">
+      <c r="A2182"/>
+    </row>
+    <row r="2183" spans="1:4">
+      <c r="A2183"/>
+    </row>
+    <row r="2184" spans="1:4">
+      <c r="A2184"/>
+    </row>
+    <row r="2185" spans="1:4">
+      <c r="A2185"/>
+    </row>
+    <row r="2186" spans="1:4">
+      <c r="A2186"/>
+    </row>
+    <row r="2187" spans="1:4">
+      <c r="A2187"/>
+    </row>
+    <row r="2188" spans="1:4">
+      <c r="A2188"/>
+    </row>
+    <row r="2189" spans="1:4">
+      <c r="A2189"/>
+    </row>
+    <row r="2190" spans="1:4">
+      <c r="A2190"/>
+    </row>
+    <row r="2191" spans="1:4">
+      <c r="A2191"/>
+    </row>
+    <row r="2192" spans="1:4">
+      <c r="A2192"/>
+    </row>
+    <row r="2193" spans="1:4">
+      <c r="A2193"/>
+    </row>
+    <row r="2194" spans="1:4">
+      <c r="A2194"/>
+    </row>
+    <row r="2195" spans="1:4">
+      <c r="A2195"/>
+    </row>
+    <row r="2196" spans="1:4">
+      <c r="A2196"/>
+    </row>
+    <row r="2197" spans="1:4">
+      <c r="A2197"/>
+    </row>
+    <row r="2198" spans="1:4">
+      <c r="A2198"/>
+    </row>
+    <row r="2199" spans="1:4">
+      <c r="A2199"/>
+    </row>
+    <row r="2200" spans="1:4">
+      <c r="A2200"/>
+    </row>
+    <row r="2201" spans="1:4">
+      <c r="A2201"/>
+    </row>
+    <row r="2202" spans="1:4">
+      <c r="A2202"/>
+    </row>
+    <row r="2203" spans="1:4">
+      <c r="A2203"/>
+    </row>
+    <row r="2204" spans="1:4">
+      <c r="A2204"/>
+    </row>
+    <row r="2205" spans="1:4">
+      <c r="A2205"/>
+    </row>
+    <row r="2206" spans="1:4">
+      <c r="A2206"/>
+    </row>
+    <row r="2207" spans="1:4">
+      <c r="A2207"/>
+    </row>
+    <row r="2208" spans="1:4">
+      <c r="A2208"/>
+    </row>
+    <row r="2209" spans="1:4">
+      <c r="A2209"/>
+    </row>
+    <row r="2210" spans="1:4">
+      <c r="A2210"/>
+    </row>
+    <row r="2211" spans="1:4">
+      <c r="A2211"/>
+    </row>
+    <row r="2212" spans="1:4">
+      <c r="A2212"/>
+    </row>
+    <row r="2213" spans="1:4">
+      <c r="A2213"/>
+    </row>
+    <row r="2214" spans="1:4">
+      <c r="A2214"/>
+    </row>
+    <row r="2215" spans="1:4">
+      <c r="A2215"/>
+    </row>
+    <row r="2216" spans="1:4">
+      <c r="A2216"/>
+    </row>
+    <row r="2217" spans="1:4">
+      <c r="A2217"/>
+    </row>
+    <row r="2218" spans="1:4">
+      <c r="A2218"/>
+    </row>
+    <row r="2219" spans="1:4">
+      <c r="A2219"/>
+    </row>
+    <row r="2220" spans="1:4">
+      <c r="A2220"/>
+    </row>
+    <row r="2221" spans="1:4">
+      <c r="A2221"/>
+    </row>
+    <row r="2222" spans="1:4">
+      <c r="A2222"/>
+    </row>
+    <row r="2223" spans="1:4">
+      <c r="A2223"/>
+    </row>
+    <row r="2224" spans="1:4">
+      <c r="A2224"/>
+    </row>
+    <row r="2225" spans="1:4">
+      <c r="A2225"/>
+    </row>
+    <row r="2226" spans="1:4">
+      <c r="A2226"/>
+    </row>
+    <row r="2227" spans="1:4">
+      <c r="A2227"/>
+    </row>
+    <row r="2228" spans="1:4">
+      <c r="A2228"/>
+    </row>
+    <row r="2229" spans="1:4">
+      <c r="A2229"/>
+    </row>
+    <row r="2230" spans="1:4">
+      <c r="A2230"/>
+    </row>
+    <row r="2231" spans="1:4">
+      <c r="A2231"/>
+    </row>
+    <row r="2232" spans="1:4">
+      <c r="A2232"/>
+    </row>
+    <row r="2233" spans="1:4">
+      <c r="A2233"/>
+    </row>
+    <row r="2234" spans="1:4">
+      <c r="A2234"/>
+    </row>
+    <row r="2235" spans="1:4">
+      <c r="A2235"/>
+    </row>
+    <row r="2236" spans="1:4">
+      <c r="A2236"/>
+    </row>
+    <row r="2237" spans="1:4">
+      <c r="A2237"/>
+    </row>
+    <row r="2238" spans="1:4">
+      <c r="A2238"/>
+    </row>
+    <row r="2239" spans="1:4">
+      <c r="A2239"/>
+    </row>
+    <row r="2240" spans="1:4">
+      <c r="A2240"/>
+    </row>
+    <row r="2241" spans="1:4">
+      <c r="A2241"/>
+    </row>
+    <row r="2242" spans="1:4">
+      <c r="A2242"/>
+    </row>
+    <row r="2243" spans="1:4">
+      <c r="A2243"/>
+    </row>
+    <row r="2244" spans="1:4">
+      <c r="A2244"/>
+    </row>
+    <row r="2245" spans="1:4">
+      <c r="A2245"/>
+    </row>
+    <row r="2246" spans="1:4">
+      <c r="A2246"/>
+    </row>
+    <row r="2247" spans="1:4">
+      <c r="A2247"/>
+    </row>
+    <row r="2248" spans="1:4">
+      <c r="A2248"/>
+    </row>
+    <row r="2249" spans="1:4">
+      <c r="A2249"/>
+    </row>
+    <row r="2250" spans="1:4">
+      <c r="A2250"/>
+    </row>
+    <row r="2251" spans="1:4">
+      <c r="A2251"/>
+    </row>
+    <row r="2252" spans="1:4">
+      <c r="A2252"/>
+    </row>
+    <row r="2253" spans="1:4">
+      <c r="A2253"/>
+    </row>
+    <row r="2254" spans="1:4">
+      <c r="A2254"/>
+    </row>
+    <row r="2255" spans="1:4">
+      <c r="A2255"/>
+    </row>
+    <row r="2256" spans="1:4">
+      <c r="A2256"/>
+    </row>
+    <row r="2257" spans="1:4">
+      <c r="A2257"/>
+    </row>
+    <row r="2258" spans="1:4">
+      <c r="A2258"/>
+    </row>
+    <row r="2259" spans="1:4">
+      <c r="A2259"/>
+    </row>
+    <row r="2260" spans="1:4">
+      <c r="A2260"/>
+    </row>
+    <row r="2261" spans="1:4">
+      <c r="A2261"/>
+    </row>
+    <row r="2262" spans="1:4">
+      <c r="A2262"/>
+    </row>
+    <row r="2263" spans="1:4">
+      <c r="A2263"/>
+    </row>
+    <row r="2264" spans="1:4">
+      <c r="A2264"/>
+    </row>
+    <row r="2265" spans="1:4">
+      <c r="A2265"/>
+    </row>
+    <row r="2266" spans="1:4">
+      <c r="A2266"/>
+    </row>
+    <row r="2267" spans="1:4">
+      <c r="A2267"/>
+    </row>
+    <row r="2268" spans="1:4">
+      <c r="A2268"/>
+    </row>
+    <row r="2269" spans="1:4">
+      <c r="A2269"/>
+    </row>
+    <row r="2270" spans="1:4">
+      <c r="A2270"/>
+    </row>
+    <row r="2271" spans="1:4">
+      <c r="A2271"/>
+    </row>
+    <row r="2272" spans="1:4">
+      <c r="A2272"/>
+    </row>
+    <row r="2273" spans="1:4">
+      <c r="A2273"/>
+    </row>
+    <row r="2274" spans="1:4">
+      <c r="A2274"/>
+    </row>
+    <row r="2275" spans="1:4">
+      <c r="A2275"/>
+    </row>
+    <row r="2276" spans="1:4">
+      <c r="A2276"/>
+    </row>
+    <row r="2277" spans="1:4">
+      <c r="A2277"/>
+    </row>
+    <row r="2278" spans="1:4">
+      <c r="A2278"/>
+    </row>
+    <row r="2279" spans="1:4">
+      <c r="A2279"/>
+    </row>
+    <row r="2280" spans="1:4">
+      <c r="A2280"/>
+    </row>
+    <row r="2281" spans="1:4">
+      <c r="A2281"/>
+    </row>
+    <row r="2282" spans="1:4">
+      <c r="A2282"/>
+    </row>
+    <row r="2283" spans="1:4">
+      <c r="A2283"/>
+    </row>
+    <row r="2284" spans="1:4">
+      <c r="A2284"/>
+    </row>
+    <row r="2285" spans="1:4">
+      <c r="A2285"/>
+    </row>
+    <row r="2286" spans="1:4">
+      <c r="A2286"/>
+    </row>
+    <row r="2287" spans="1:4">
+      <c r="A2287"/>
+    </row>
+    <row r="2288" spans="1:4">
+      <c r="A2288"/>
+    </row>
+    <row r="2289" spans="1:4">
+      <c r="A2289"/>
+    </row>
+    <row r="2290" spans="1:4">
+      <c r="A2290"/>
+    </row>
+    <row r="2291" spans="1:4">
+      <c r="A2291"/>
+    </row>
+    <row r="2292" spans="1:4">
+      <c r="A2292"/>
+    </row>
+    <row r="2293" spans="1:4">
+      <c r="A2293"/>
+    </row>
+    <row r="2294" spans="1:4">
+      <c r="A2294"/>
+    </row>
+    <row r="2295" spans="1:4">
+      <c r="A2295"/>
+    </row>
+    <row r="2296" spans="1:4">
+      <c r="A2296"/>
+    </row>
+    <row r="2297" spans="1:4">
+      <c r="A2297"/>
+    </row>
+    <row r="2298" spans="1:4">
+      <c r="A2298"/>
+    </row>
+    <row r="2299" spans="1:4">
+      <c r="A2299"/>
+    </row>
+    <row r="2300" spans="1:4">
+      <c r="A2300"/>
+    </row>
+    <row r="2301" spans="1:4">
+      <c r="A2301"/>
+    </row>
+    <row r="2302" spans="1:4">
+      <c r="A2302"/>
+    </row>
+    <row r="2303" spans="1:4">
+      <c r="A2303"/>
+    </row>
+    <row r="2304" spans="1:4">
+      <c r="A2304"/>
+    </row>
+    <row r="2305" spans="1:4">
+      <c r="A2305"/>
+    </row>
+    <row r="2306" spans="1:4">
+      <c r="A2306"/>
+    </row>
+    <row r="2307" spans="1:4">
+      <c r="A2307"/>
+    </row>
+    <row r="2308" spans="1:4">
+      <c r="A2308"/>
+    </row>
+    <row r="2309" spans="1:4">
+      <c r="A2309"/>
+    </row>
+    <row r="2310" spans="1:4">
+      <c r="A2310"/>
+    </row>
+    <row r="2311" spans="1:4">
+      <c r="A2311"/>
+    </row>
+    <row r="2312" spans="1:4">
+      <c r="A2312"/>
+    </row>
+    <row r="2313" spans="1:4">
+      <c r="A2313"/>
+    </row>
+    <row r="2314" spans="1:4">
+      <c r="A2314"/>
+    </row>
+    <row r="2315" spans="1:4">
+      <c r="A2315"/>
+    </row>
+    <row r="2316" spans="1:4">
+      <c r="A2316"/>
+    </row>
+    <row r="2317" spans="1:4">
+      <c r="A2317"/>
+    </row>
+    <row r="2318" spans="1:4">
+      <c r="A2318"/>
+    </row>
+    <row r="2319" spans="1:4">
+      <c r="A2319"/>
+    </row>
+    <row r="2320" spans="1:4">
+      <c r="A2320"/>
+    </row>
+    <row r="2321" spans="1:4">
+      <c r="A2321"/>
+    </row>
+    <row r="2322" spans="1:4">
+      <c r="A2322"/>
+    </row>
+    <row r="2323" spans="1:4">
+      <c r="A2323"/>
+    </row>
+    <row r="2324" spans="1:4">
+      <c r="A2324"/>
+    </row>
+    <row r="2325" spans="1:4">
+      <c r="A2325"/>
+    </row>
+    <row r="2326" spans="1:4">
+      <c r="A2326"/>
+    </row>
+    <row r="2327" spans="1:4">
+      <c r="A2327"/>
+    </row>
+    <row r="2328" spans="1:4">
+      <c r="A2328"/>
+    </row>
+    <row r="2329" spans="1:4">
+      <c r="A2329"/>
+    </row>
+    <row r="2330" spans="1:4">
+      <c r="A2330"/>
+    </row>
+    <row r="2331" spans="1:4">
+      <c r="A2331"/>
+    </row>
+    <row r="2332" spans="1:4">
+      <c r="A2332"/>
+    </row>
+    <row r="2333" spans="1:4">
+      <c r="A2333"/>
+    </row>
+    <row r="2334" spans="1:4">
+      <c r="A2334"/>
+    </row>
+    <row r="2335" spans="1:4">
+      <c r="A2335"/>
+    </row>
+    <row r="2336" spans="1:4">
+      <c r="A2336"/>
+    </row>
+    <row r="2337" spans="1:4">
+      <c r="A2337"/>
+    </row>
+    <row r="2338" spans="1:4">
+      <c r="A2338"/>
+    </row>
+    <row r="2339" spans="1:4">
+      <c r="A2339"/>
+    </row>
+    <row r="2340" spans="1:4">
+      <c r="A2340"/>
+    </row>
+    <row r="2341" spans="1:4">
+      <c r="A2341"/>
+    </row>
+    <row r="2342" spans="1:4">
+      <c r="A2342"/>
+    </row>
+    <row r="2343" spans="1:4">
+      <c r="A2343"/>
+    </row>
+    <row r="2344" spans="1:4">
+      <c r="A2344"/>
+    </row>
+    <row r="2345" spans="1:4">
+      <c r="A2345"/>
+    </row>
+    <row r="2346" spans="1:4">
+      <c r="A2346"/>
+    </row>
+    <row r="2347" spans="1:4">
+      <c r="A2347"/>
+    </row>
+    <row r="2348" spans="1:4">
+      <c r="A2348"/>
+    </row>
+    <row r="2349" spans="1:4">
+      <c r="A2349"/>
+    </row>
+    <row r="2350" spans="1:4">
+      <c r="A2350"/>
+    </row>
+    <row r="2351" spans="1:4">
+      <c r="A2351"/>
+    </row>
+    <row r="2352" spans="1:4">
+      <c r="A2352"/>
+    </row>
+    <row r="2353" spans="1:4">
+      <c r="A2353"/>
+    </row>
+    <row r="2354" spans="1:4">
+      <c r="A2354"/>
+    </row>
+    <row r="2355" spans="1:4">
+      <c r="A2355"/>
+    </row>
+    <row r="2356" spans="1:4">
+      <c r="A2356"/>
+    </row>
+    <row r="2357" spans="1:4">
+      <c r="A2357"/>
+    </row>
+    <row r="2358" spans="1:4">
+      <c r="A2358"/>
+    </row>
+    <row r="2359" spans="1:4">
+      <c r="A2359"/>
+    </row>
+    <row r="2360" spans="1:4">
+      <c r="A2360"/>
+    </row>
+    <row r="2361" spans="1:4">
+      <c r="A2361"/>
+    </row>
+    <row r="2362" spans="1:4">
+      <c r="A2362"/>
+    </row>
+    <row r="2363" spans="1:4">
+      <c r="A2363"/>
+    </row>
+    <row r="2364" spans="1:4">
+      <c r="A2364"/>
+    </row>
+    <row r="2365" spans="1:4">
+      <c r="A2365"/>
+    </row>
+    <row r="2366" spans="1:4">
+      <c r="A2366"/>
+    </row>
+    <row r="2367" spans="1:4">
+      <c r="A2367"/>
+    </row>
+    <row r="2368" spans="1:4">
+      <c r="A2368"/>
+    </row>
+    <row r="2369" spans="1:4">
+      <c r="A2369"/>
+    </row>
+    <row r="2370" spans="1:4">
+      <c r="A2370"/>
+    </row>
+    <row r="2371" spans="1:4">
+      <c r="A2371"/>
+    </row>
+    <row r="2372" spans="1:4">
+      <c r="A2372"/>
+    </row>
+    <row r="2373" spans="1:4">
+      <c r="A2373"/>
+    </row>
+    <row r="2374" spans="1:4">
+      <c r="A2374"/>
+    </row>
+    <row r="2375" spans="1:4">
+      <c r="A2375"/>
+    </row>
+    <row r="2376" spans="1:4">
+      <c r="A2376"/>
+    </row>
+    <row r="2377" spans="1:4">
+      <c r="A2377"/>
+    </row>
+    <row r="2378" spans="1:4">
+      <c r="A2378"/>
+    </row>
+    <row r="2379" spans="1:4">
+      <c r="A2379"/>
+    </row>
+    <row r="2380" spans="1:4">
+      <c r="A2380"/>
+    </row>
+    <row r="2381" spans="1:4">
+      <c r="A2381"/>
+    </row>
+    <row r="2382" spans="1:4">
+      <c r="A2382"/>
+    </row>
+    <row r="2383" spans="1:4">
+      <c r="A2383"/>
+    </row>
+    <row r="2384" spans="1:4">
+      <c r="A2384"/>
+    </row>
+    <row r="2385" spans="1:4">
+      <c r="A2385"/>
+    </row>
+    <row r="2386" spans="1:4">
+      <c r="A2386"/>
+    </row>
+    <row r="2387" spans="1:4">
+      <c r="A2387"/>
+    </row>
+    <row r="2388" spans="1:4">
+      <c r="A2388"/>
+    </row>
+    <row r="2389" spans="1:4">
+      <c r="A2389"/>
+    </row>
+    <row r="2390" spans="1:4">
+      <c r="A2390"/>
+    </row>
+    <row r="2391" spans="1:4">
+      <c r="A2391"/>
+    </row>
+    <row r="2392" spans="1:4">
+      <c r="A2392"/>
+    </row>
+    <row r="2393" spans="1:4">
+      <c r="A2393"/>
+    </row>
+    <row r="2394" spans="1:4">
+      <c r="A2394"/>
+    </row>
+    <row r="2395" spans="1:4">
+      <c r="A2395"/>
+    </row>
+    <row r="2396" spans="1:4">
+      <c r="A2396"/>
+    </row>
+    <row r="2397" spans="1:4">
+      <c r="A2397"/>
+    </row>
+    <row r="2398" spans="1:4">
+      <c r="A2398"/>
+    </row>
+    <row r="2399" spans="1:4">
+      <c r="A2399"/>
+    </row>
+    <row r="2400" spans="1:4">
+      <c r="A2400"/>
+    </row>
+    <row r="2401" spans="1:4">
+      <c r="A2401"/>
+    </row>
+    <row r="2402" spans="1:4">
+      <c r="A2402"/>
+    </row>
+    <row r="2403" spans="1:4">
+      <c r="A2403"/>
+    </row>
+    <row r="2404" spans="1:4">
+      <c r="A2404"/>
+    </row>
+    <row r="2405" spans="1:4">
+      <c r="A2405"/>
+    </row>
+    <row r="2406" spans="1:4">
+      <c r="A2406"/>
+    </row>
+    <row r="2407" spans="1:4">
+      <c r="A2407"/>
+    </row>
+    <row r="2408" spans="1:4">
+      <c r="A2408"/>
+    </row>
+    <row r="2409" spans="1:4">
+      <c r="A2409"/>
+    </row>
+    <row r="2410" spans="1:4">
+      <c r="A2410"/>
+    </row>
+    <row r="2411" spans="1:4">
+      <c r="A2411"/>
+    </row>
+    <row r="2412" spans="1:4">
+      <c r="A2412"/>
+    </row>
+    <row r="2413" spans="1:4">
+      <c r="A2413"/>
+    </row>
+    <row r="2414" spans="1:4">
+      <c r="A2414"/>
+    </row>
+    <row r="2415" spans="1:4">
+      <c r="A2415"/>
+    </row>
+    <row r="2416" spans="1:4">
+      <c r="A2416"/>
+    </row>
+    <row r="2417" spans="1:4">
+      <c r="A2417"/>
+    </row>
+    <row r="2418" spans="1:4">
+      <c r="A2418"/>
+    </row>
+    <row r="2419" spans="1:4">
+      <c r="A2419"/>
+    </row>
+    <row r="2420" spans="1:4">
+      <c r="A2420"/>
+    </row>
+    <row r="2421" spans="1:4">
+      <c r="A2421"/>
+    </row>
+    <row r="2422" spans="1:4">
+      <c r="A2422"/>
+    </row>
+    <row r="2423" spans="1:4">
+      <c r="A2423"/>
+    </row>
+    <row r="2424" spans="1:4">
+      <c r="A2424"/>
+    </row>
+    <row r="2425" spans="1:4">
+      <c r="A2425"/>
+    </row>
+    <row r="2426" spans="1:4">
+      <c r="A2426"/>
+    </row>
+    <row r="2427" spans="1:4">
+      <c r="A2427"/>
+    </row>
+    <row r="2428" spans="1:4">
+      <c r="A2428"/>
+    </row>
+    <row r="2429" spans="1:4">
+      <c r="A2429"/>
+    </row>
+    <row r="2430" spans="1:4">
+      <c r="A2430"/>
+    </row>
+    <row r="2431" spans="1:4">
+      <c r="A2431"/>
+    </row>
+    <row r="2432" spans="1:4">
+      <c r="A2432"/>
+    </row>
+    <row r="2433" spans="1:4">
+      <c r="A2433"/>
+    </row>
+    <row r="2434" spans="1:4">
+      <c r="A2434"/>
+    </row>
+    <row r="2435" spans="1:4">
+      <c r="A2435"/>
+    </row>
+    <row r="2436" spans="1:4">
+      <c r="A2436"/>
+    </row>
+    <row r="2437" spans="1:4">
+      <c r="A2437"/>
+    </row>
+    <row r="2438" spans="1:4">
+      <c r="A2438"/>
+    </row>
+    <row r="2439" spans="1:4">
+      <c r="A2439"/>
+    </row>
+    <row r="2440" spans="1:4">
+      <c r="A2440"/>
+    </row>
+    <row r="2441" spans="1:4">
+      <c r="A2441"/>
+    </row>
+    <row r="2442" spans="1:4">
+      <c r="A2442"/>
+    </row>
+    <row r="2443" spans="1:4">
+      <c r="A2443"/>
+    </row>
+    <row r="2444" spans="1:4">
+      <c r="A2444"/>
+    </row>
+    <row r="2445" spans="1:4">
+      <c r="A2445"/>
+    </row>
+    <row r="2446" spans="1:4">
+      <c r="A2446"/>
+    </row>
+    <row r="2447" spans="1:4">
+      <c r="A2447"/>
+    </row>
+    <row r="2448" spans="1:4">
+      <c r="A2448"/>
+    </row>
+    <row r="2449" spans="1:4">
+      <c r="A2449"/>
+    </row>
+    <row r="2450" spans="1:4">
+      <c r="A2450"/>
+    </row>
+    <row r="2451" spans="1:4">
+      <c r="A2451"/>
+    </row>
+    <row r="2452" spans="1:4">
+      <c r="A2452"/>
+    </row>
+    <row r="2453" spans="1:4">
+      <c r="A2453"/>
+    </row>
+    <row r="2454" spans="1:4">
+      <c r="A2454"/>
+    </row>
+    <row r="2455" spans="1:4">
+      <c r="A2455"/>
+    </row>
+    <row r="2456" spans="1:4">
+      <c r="A2456"/>
+    </row>
+    <row r="2457" spans="1:4">
+      <c r="A2457"/>
+    </row>
+    <row r="2458" spans="1:4">
+      <c r="A2458"/>
+    </row>
+    <row r="2459" spans="1:4">
+      <c r="A2459"/>
+    </row>
+    <row r="2460" spans="1:4">
+      <c r="A2460"/>
+    </row>
+    <row r="2461" spans="1:4">
+      <c r="A2461"/>
+    </row>
+    <row r="2462" spans="1:4">
+      <c r="A2462"/>
+    </row>
+    <row r="2463" spans="1:4">
+      <c r="A2463"/>
+    </row>
+    <row r="2464" spans="1:4">
+      <c r="A2464"/>
+    </row>
+    <row r="2465" spans="1:4">
+      <c r="A2465"/>
+    </row>
+    <row r="2466" spans="1:4">
+      <c r="A2466"/>
+    </row>
+    <row r="2467" spans="1:4">
+      <c r="A2467"/>
+    </row>
+    <row r="2468" spans="1:4">
+      <c r="A2468"/>
+    </row>
+    <row r="2469" spans="1:4">
+      <c r="A2469"/>
+    </row>
+    <row r="2470" spans="1:4">
+      <c r="A2470"/>
+    </row>
+    <row r="2471" spans="1:4">
+      <c r="A2471"/>
+    </row>
+    <row r="2472" spans="1:4">
+      <c r="A2472"/>
+    </row>
+    <row r="2473" spans="1:4">
+      <c r="A2473"/>
+    </row>
+    <row r="2474" spans="1:4">
+      <c r="A2474"/>
+    </row>
+    <row r="2475" spans="1:4">
+      <c r="A2475"/>
+    </row>
+    <row r="2476" spans="1:4">
+      <c r="A2476"/>
+    </row>
+    <row r="2477" spans="1:4">
+      <c r="A2477"/>
+    </row>
+    <row r="2478" spans="1:4">
+      <c r="A2478"/>
+    </row>
+    <row r="2479" spans="1:4">
+      <c r="A2479"/>
+    </row>
+    <row r="2480" spans="1:4">
+      <c r="A2480"/>
+    </row>
+    <row r="2481" spans="1:4">
+      <c r="A2481"/>
+    </row>
+    <row r="2482" spans="1:4">
+      <c r="A2482"/>
+    </row>
+    <row r="2483" spans="1:4">
+      <c r="A2483"/>
+    </row>
+    <row r="2484" spans="1:4">
+      <c r="A2484"/>
+    </row>
+    <row r="2485" spans="1:4">
+      <c r="A2485"/>
+    </row>
+    <row r="2486" spans="1:4">
+      <c r="A2486"/>
+    </row>
+    <row r="2487" spans="1:4">
+      <c r="A2487"/>
+    </row>
+    <row r="2488" spans="1:4">
+      <c r="A2488"/>
+    </row>
+    <row r="2489" spans="1:4">
+      <c r="A2489"/>
+    </row>
+    <row r="2490" spans="1:4">
+      <c r="A2490"/>
+    </row>
+    <row r="2491" spans="1:4">
+      <c r="A2491"/>
+    </row>
+    <row r="2492" spans="1:4">
+      <c r="A2492"/>
+    </row>
+    <row r="2493" spans="1:4">
+      <c r="A2493"/>
+    </row>
+    <row r="2494" spans="1:4">
+      <c r="A2494"/>
+    </row>
+    <row r="2495" spans="1:4">
+      <c r="A2495"/>
+    </row>
+    <row r="2496" spans="1:4">
+      <c r="A2496"/>
+    </row>
+    <row r="2497" spans="1:4">
+      <c r="A2497"/>
+    </row>
+    <row r="2498" spans="1:4">
+      <c r="A2498"/>
+    </row>
+    <row r="2499" spans="1:4">
+      <c r="A2499"/>
+    </row>
+    <row r="2500" spans="1:4">
+      <c r="A2500"/>
+    </row>
+    <row r="2501" spans="1:4">
+      <c r="A2501"/>
+    </row>
+    <row r="2502" spans="1:4">
+      <c r="A2502"/>
+    </row>
+    <row r="2503" spans="1:4">
+      <c r="A2503"/>
+    </row>
+    <row r="2504" spans="1:4">
+      <c r="A2504"/>
+    </row>
+    <row r="2505" spans="1:4">
+      <c r="A2505"/>
+    </row>
+    <row r="2506" spans="1:4">
+      <c r="A2506"/>
+    </row>
+    <row r="2507" spans="1:4">
+      <c r="A2507"/>
+    </row>
+    <row r="2508" spans="1:4">
+      <c r="A2508"/>
+    </row>
+    <row r="2509" spans="1:4">
+      <c r="A2509"/>
+    </row>
+    <row r="2510" spans="1:4">
+      <c r="A2510"/>
+    </row>
+    <row r="2511" spans="1:4">
+      <c r="A2511"/>
+    </row>
+    <row r="2512" spans="1:4">
+      <c r="A2512"/>
+    </row>
+    <row r="2513" spans="1:4">
+      <c r="A2513"/>
+    </row>
+    <row r="2514" spans="1:4">
+      <c r="A2514"/>
+    </row>
+    <row r="2515" spans="1:4">
+      <c r="A2515"/>
+    </row>
+    <row r="2516" spans="1:4">
+      <c r="A2516"/>
+    </row>
+    <row r="2517" spans="1:4">
+      <c r="A2517"/>
+    </row>
+    <row r="2518" spans="1:4">
+      <c r="A2518"/>
+    </row>
+    <row r="2519" spans="1:4">
+      <c r="A2519"/>
+    </row>
+    <row r="2520" spans="1:4">
+      <c r="A2520"/>
+    </row>
+    <row r="2521" spans="1:4">
+      <c r="A2521"/>
+    </row>
+    <row r="2522" spans="1:4">
+      <c r="A2522"/>
+    </row>
+    <row r="2523" spans="1:4">
+      <c r="A2523"/>
+    </row>
+    <row r="2524" spans="1:4">
+      <c r="A2524"/>
+    </row>
+    <row r="2525" spans="1:4">
+      <c r="A2525"/>
+    </row>
+    <row r="2526" spans="1:4">
+      <c r="A2526"/>
+    </row>
+    <row r="2527" spans="1:4">
+      <c r="A2527"/>
+    </row>
+    <row r="2528" spans="1:4">
+      <c r="A2528"/>
+    </row>
+    <row r="2529" spans="1:4">
+      <c r="A2529"/>
+    </row>
+    <row r="2530" spans="1:4">
+      <c r="A2530"/>
+    </row>
+    <row r="2531" spans="1:4">
+      <c r="A2531"/>
+    </row>
+    <row r="2532" spans="1:4">
+      <c r="A2532"/>
+    </row>
+    <row r="2533" spans="1:4">
+      <c r="A2533"/>
+    </row>
+    <row r="2534" spans="1:4">
+      <c r="A2534"/>
+    </row>
+    <row r="2535" spans="1:4">
+      <c r="A2535"/>
+    </row>
+    <row r="2536" spans="1:4">
+      <c r="A2536"/>
+    </row>
+    <row r="2537" spans="1:4">
+      <c r="A2537"/>
+    </row>
+    <row r="2538" spans="1:4">
+      <c r="A2538"/>
+    </row>
+    <row r="2539" spans="1:4">
+      <c r="A2539"/>
+    </row>
+    <row r="2540" spans="1:4">
+      <c r="A2540"/>
+    </row>
+    <row r="2541" spans="1:4">
+      <c r="A2541"/>
+    </row>
+    <row r="2542" spans="1:4">
+      <c r="A2542"/>
+    </row>
+    <row r="2543" spans="1:4">
+      <c r="A2543"/>
+    </row>
+    <row r="2544" spans="1:4">
+      <c r="A2544"/>
+    </row>
+    <row r="2545" spans="1:4">
+      <c r="A2545"/>
+    </row>
+    <row r="2546" spans="1:4">
+      <c r="A2546"/>
+    </row>
+    <row r="2547" spans="1:4">
+      <c r="A2547"/>
+    </row>
+    <row r="2548" spans="1:4">
+      <c r="A2548"/>
+    </row>
+    <row r="2549" spans="1:4">
+      <c r="A2549"/>
+    </row>
+    <row r="2550" spans="1:4">
+      <c r="A2550"/>
+    </row>
+    <row r="2551" spans="1:4">
+      <c r="A2551"/>
+    </row>
+    <row r="2552" spans="1:4">
+      <c r="A2552"/>
+    </row>
+    <row r="2553" spans="1:4">
+      <c r="A2553"/>
+    </row>
+    <row r="2554" spans="1:4">
+      <c r="A2554"/>
+    </row>
+    <row r="2555" spans="1:4">
+      <c r="A2555"/>
+    </row>
+    <row r="2556" spans="1:4">
+      <c r="A2556"/>
+    </row>
+    <row r="2557" spans="1:4">
+      <c r="A2557"/>
+    </row>
+    <row r="2558" spans="1:4">
+      <c r="A2558"/>
+    </row>
+    <row r="2559" spans="1:4">
+      <c r="A2559"/>
+    </row>
+    <row r="2560" spans="1:4">
+      <c r="A2560"/>
+    </row>
+    <row r="2561" spans="1:4">
+      <c r="A2561"/>
+    </row>
+    <row r="2562" spans="1:4">
+      <c r="A2562"/>
+    </row>
+    <row r="2563" spans="1:4">
+      <c r="A2563"/>
+    </row>
+    <row r="2564" spans="1:4">
+      <c r="A2564"/>
+    </row>
+    <row r="2565" spans="1:4">
+      <c r="A2565"/>
+    </row>
+    <row r="2566" spans="1:4">
+      <c r="A2566"/>
+    </row>
+    <row r="2567" spans="1:4">
+      <c r="A2567"/>
+    </row>
+    <row r="2568" spans="1:4">
+      <c r="A2568"/>
+    </row>
+    <row r="2569" spans="1:4">
+      <c r="A2569"/>
+    </row>
+    <row r="2570" spans="1:4">
+      <c r="A2570"/>
+    </row>
+    <row r="2571" spans="1:4">
+      <c r="A2571"/>
+    </row>
+    <row r="2572" spans="1:4">
+      <c r="A2572"/>
+    </row>
+    <row r="2573" spans="1:4">
+      <c r="A2573"/>
+    </row>
+    <row r="2574" spans="1:4">
+      <c r="A2574"/>
+    </row>
+    <row r="2575" spans="1:4">
+      <c r="A2575"/>
+    </row>
+    <row r="2576" spans="1:4">
+      <c r="A2576"/>
+    </row>
+    <row r="2577" spans="1:4">
+      <c r="A2577"/>
+    </row>
+    <row r="2578" spans="1:4">
+      <c r="A2578"/>
+    </row>
+    <row r="2579" spans="1:4">
+      <c r="A2579"/>
+    </row>
+    <row r="2580" spans="1:4">
+      <c r="A2580"/>
+    </row>
+    <row r="2581" spans="1:4">
+      <c r="A2581"/>
+    </row>
+    <row r="2582" spans="1:4">
+      <c r="A2582"/>
+    </row>
+    <row r="2583" spans="1:4">
+      <c r="A2583"/>
+    </row>
+    <row r="2584" spans="1:4">
+      <c r="A2584"/>
+    </row>
+    <row r="2585" spans="1:4">
+      <c r="A2585"/>
+    </row>
+    <row r="2586" spans="1:4">
+      <c r="A2586"/>
+    </row>
+    <row r="2587" spans="1:4">
+      <c r="A2587"/>
+    </row>
+    <row r="2588" spans="1:4">
+      <c r="A2588"/>
+    </row>
+    <row r="2589" spans="1:4">
+      <c r="A2589"/>
+    </row>
+    <row r="2590" spans="1:4">
+      <c r="A2590"/>
+    </row>
+    <row r="2591" spans="1:4">
+      <c r="A2591"/>
+    </row>
+    <row r="2592" spans="1:4">
+      <c r="A2592"/>
+    </row>
+    <row r="2593" spans="1:4">
+      <c r="A2593"/>
+    </row>
+    <row r="2594" spans="1:4">
+      <c r="A2594"/>
+    </row>
+    <row r="2595" spans="1:4">
+      <c r="A2595"/>
+    </row>
+    <row r="2596" spans="1:4">
+      <c r="A2596"/>
+    </row>
+    <row r="2597" spans="1:4">
+      <c r="A2597"/>
+    </row>
+    <row r="2598" spans="1:4">
+      <c r="A2598"/>
+    </row>
+    <row r="2599" spans="1:4">
+      <c r="A2599"/>
+    </row>
+    <row r="2600" spans="1:4">
+      <c r="A2600"/>
+    </row>
+    <row r="2601" spans="1:4">
+      <c r="A2601"/>
+    </row>
+    <row r="2602" spans="1:4">
+      <c r="A2602"/>
+    </row>
+    <row r="2603" spans="1:4">
+      <c r="A2603"/>
+    </row>
+    <row r="2604" spans="1:4">
+      <c r="A2604"/>
+    </row>
+    <row r="2605" spans="1:4">
+      <c r="A2605"/>
+    </row>
+    <row r="2606" spans="1:4">
+      <c r="A2606"/>
+    </row>
+    <row r="2607" spans="1:4">
+      <c r="A2607"/>
+    </row>
+    <row r="2608" spans="1:4">
+      <c r="A2608"/>
+    </row>
+    <row r="2609" spans="1:4">
+      <c r="A2609"/>
+    </row>
+    <row r="2610" spans="1:4">
+      <c r="A2610"/>
+    </row>
+    <row r="2611" spans="1:4">
+      <c r="A2611"/>
+    </row>
+    <row r="2612" spans="1:4">
+      <c r="A2612"/>
+    </row>
+    <row r="2613" spans="1:4">
+      <c r="A2613"/>
+    </row>
+    <row r="2614" spans="1:4">
+      <c r="A2614"/>
+    </row>
+    <row r="2615" spans="1:4">
+      <c r="A2615"/>
+    </row>
+    <row r="2616" spans="1:4">
+      <c r="A2616"/>
+    </row>
+    <row r="2617" spans="1:4">
+      <c r="A2617"/>
+    </row>
+    <row r="2618" spans="1:4">
+      <c r="A2618"/>
+    </row>
+    <row r="2619" spans="1:4">
+      <c r="A2619"/>
+    </row>
+    <row r="2620" spans="1:4">
+      <c r="A2620"/>
+    </row>
+    <row r="2621" spans="1:4">
+      <c r="A2621"/>
+    </row>
+    <row r="2622" spans="1:4">
+      <c r="A2622"/>
+    </row>
+    <row r="2623" spans="1:4">
+      <c r="A2623"/>
+    </row>
+    <row r="2624" spans="1:4">
+      <c r="A2624"/>
+    </row>
+    <row r="2625" spans="1:4">
+      <c r="A2625"/>
+    </row>
+    <row r="2626" spans="1:4">
+      <c r="A2626"/>
+    </row>
+    <row r="2627" spans="1:4">
+      <c r="A2627"/>
+    </row>
+    <row r="2628" spans="1:4">
+      <c r="A2628"/>
+    </row>
+    <row r="2629" spans="1:4">
+      <c r="A2629"/>
+    </row>
+    <row r="2630" spans="1:4">
+      <c r="A2630"/>
+    </row>
+    <row r="2631" spans="1:4">
+      <c r="A2631"/>
+    </row>
+    <row r="2632" spans="1:4">
+      <c r="A2632"/>
+    </row>
+    <row r="2633" spans="1:4">
+      <c r="A2633"/>
+    </row>
+    <row r="2634" spans="1:4">
+      <c r="A2634"/>
+    </row>
+    <row r="2635" spans="1:4">
+      <c r="A2635"/>
+    </row>
+    <row r="2636" spans="1:4">
+      <c r="A2636"/>
+    </row>
+    <row r="2637" spans="1:4">
+      <c r="A2637"/>
+    </row>
+    <row r="2638" spans="1:4">
+      <c r="A2638"/>
+    </row>
+    <row r="2639" spans="1:4">
+      <c r="A2639"/>
+    </row>
+    <row r="2640" spans="1:4">
+      <c r="A2640"/>
+    </row>
+    <row r="2641" spans="1:4">
+      <c r="A2641"/>
+    </row>
+    <row r="2642" spans="1:4">
+      <c r="A2642"/>
+    </row>
+    <row r="2643" spans="1:4">
+      <c r="A2643"/>
+    </row>
+    <row r="2644" spans="1:4">
+      <c r="A2644"/>
+    </row>
+    <row r="2645" spans="1:4">
+      <c r="A2645"/>
+    </row>
+    <row r="2646" spans="1:4">
+      <c r="A2646"/>
+    </row>
+    <row r="2647" spans="1:4">
+      <c r="A2647"/>
+    </row>
+    <row r="2648" spans="1:4">
+      <c r="A2648"/>
+    </row>
+    <row r="2649" spans="1:4">
+      <c r="A2649"/>
+    </row>
+    <row r="2650" spans="1:4">
+      <c r="A2650"/>
+    </row>
+    <row r="2651" spans="1:4">
+      <c r="A2651"/>
+    </row>
+    <row r="2652" spans="1:4">
+      <c r="A2652"/>
+    </row>
+    <row r="2653" spans="1:4">
+      <c r="A2653"/>
+    </row>
+    <row r="2654" spans="1:4">
+      <c r="A2654"/>
+    </row>
+    <row r="2655" spans="1:4">
+      <c r="A2655"/>
+    </row>
+    <row r="2656" spans="1:4">
+      <c r="A2656"/>
+    </row>
+    <row r="2657" spans="1:4">
+      <c r="A2657"/>
+    </row>
+    <row r="2658" spans="1:4">
+      <c r="A2658"/>
+    </row>
+    <row r="2659" spans="1:4">
+      <c r="A2659"/>
+    </row>
+    <row r="2660" spans="1:4">
+      <c r="A2660"/>
+    </row>
+    <row r="2661" spans="1:4">
+      <c r="A2661"/>
+    </row>
+    <row r="2662" spans="1:4">
+      <c r="A2662"/>
+    </row>
+    <row r="2663" spans="1:4">
+      <c r="A2663"/>
+    </row>
+    <row r="2664" spans="1:4">
+      <c r="A2664"/>
+    </row>
+    <row r="2665" spans="1:4">
+      <c r="A2665"/>
+    </row>
+    <row r="2666" spans="1:4">
+      <c r="A2666"/>
+    </row>
+    <row r="2667" spans="1:4">
+      <c r="A2667"/>
+    </row>
+    <row r="2668" spans="1:4">
+      <c r="A2668"/>
+    </row>
+    <row r="2669" spans="1:4">
+      <c r="A2669"/>
+    </row>
+    <row r="2670" spans="1:4">
+      <c r="A2670"/>
+    </row>
+    <row r="2671" spans="1:4">
+      <c r="A2671"/>
+    </row>
+    <row r="2672" spans="1:4">
+      <c r="A2672"/>
+    </row>
+    <row r="2673" spans="1:4">
+      <c r="A2673"/>
+    </row>
+    <row r="2674" spans="1:4">
+      <c r="A2674"/>
+    </row>
+    <row r="2675" spans="1:4">
+      <c r="A2675"/>
+    </row>
+    <row r="2676" spans="1:4">
+      <c r="A2676"/>
+    </row>
+    <row r="2677" spans="1:4">
+      <c r="A2677"/>
+    </row>
+    <row r="2678" spans="1:4">
+      <c r="A2678"/>
+    </row>
+    <row r="2679" spans="1:4">
+      <c r="A2679"/>
+    </row>
+    <row r="2680" spans="1:4">
+      <c r="A2680"/>
+    </row>
+    <row r="2681" spans="1:4">
+      <c r="A2681"/>
+    </row>
+    <row r="2682" spans="1:4">
+      <c r="A2682"/>
+    </row>
+    <row r="2683" spans="1:4">
+      <c r="A2683"/>
+    </row>
+    <row r="2684" spans="1:4">
+      <c r="A2684"/>
+    </row>
+    <row r="2685" spans="1:4">
+      <c r="A2685"/>
+    </row>
+    <row r="2686" spans="1:4">
+      <c r="A2686"/>
+    </row>
+    <row r="2687" spans="1:4">
+      <c r="A2687"/>
+    </row>
+    <row r="2688" spans="1:4">
+      <c r="A2688"/>
+    </row>
+    <row r="2689" spans="1:4">
+      <c r="A2689"/>
+    </row>
+    <row r="2690" spans="1:4">
+      <c r="A2690"/>
+    </row>
+    <row r="2691" spans="1:4">
+      <c r="A2691"/>
+    </row>
+    <row r="2692" spans="1:4">
+      <c r="A2692"/>
+    </row>
+    <row r="2693" spans="1:4">
+      <c r="A2693"/>
+    </row>
+    <row r="2694" spans="1:4">
+      <c r="A2694"/>
+    </row>
+    <row r="2695" spans="1:4">
+      <c r="A2695"/>
+    </row>
+    <row r="2696" spans="1:4">
+      <c r="A2696"/>
+    </row>
+    <row r="2697" spans="1:4">
+      <c r="A2697"/>
+    </row>
+    <row r="2698" spans="1:4">
+      <c r="A2698"/>
+    </row>
+    <row r="2699" spans="1:4">
+      <c r="A2699"/>
+    </row>
+    <row r="2700" spans="1:4">
+      <c r="A2700"/>
+    </row>
+    <row r="2701" spans="1:4">
+      <c r="A2701"/>
+    </row>
+    <row r="2702" spans="1:4">
+      <c r="A2702"/>
+    </row>
+    <row r="2703" spans="1:4">
+      <c r="A2703"/>
+    </row>
+    <row r="2704" spans="1:4">
+      <c r="A2704"/>
+    </row>
+    <row r="2705" spans="1:4">
+      <c r="A2705"/>
+    </row>
+    <row r="2706" spans="1:4">
+      <c r="A2706"/>
+    </row>
+    <row r="2707" spans="1:4">
+      <c r="A2707"/>
+    </row>
+    <row r="2708" spans="1:4">
+      <c r="A2708"/>
+    </row>
+    <row r="2709" spans="1:4">
+      <c r="A2709"/>
+    </row>
+    <row r="2710" spans="1:4">
+      <c r="A2710"/>
+    </row>
+    <row r="2711" spans="1:4">
+      <c r="A2711"/>
+    </row>
+    <row r="2712" spans="1:4">
+      <c r="A2712"/>
+    </row>
+    <row r="2713" spans="1:4">
+      <c r="A2713"/>
+    </row>
+    <row r="2714" spans="1:4">
+      <c r="A2714"/>
+    </row>
+    <row r="2715" spans="1:4">
+      <c r="A2715"/>
+    </row>
+    <row r="2716" spans="1:4">
+      <c r="A2716"/>
+    </row>
+    <row r="2717" spans="1:4">
+      <c r="A2717"/>
+    </row>
+    <row r="2718" spans="1:4">
+      <c r="A2718"/>
+    </row>
+    <row r="2719" spans="1:4">
+      <c r="A2719"/>
+    </row>
+    <row r="2720" spans="1:4">
+      <c r="A2720"/>
+    </row>
+    <row r="2721" spans="1:4">
+      <c r="A2721"/>
+    </row>
+    <row r="2722" spans="1:4">
+      <c r="A2722"/>
+    </row>
+    <row r="2723" spans="1:4">
+      <c r="A2723"/>
+    </row>
+    <row r="2724" spans="1:4">
+      <c r="A2724"/>
+    </row>
+    <row r="2725" spans="1:4">
+      <c r="A2725"/>
+    </row>
+    <row r="2726" spans="1:4">
+      <c r="A2726"/>
+    </row>
+    <row r="2727" spans="1:4">
+      <c r="A2727"/>
+    </row>
+    <row r="2728" spans="1:4">
+      <c r="A2728"/>
+    </row>
+    <row r="2729" spans="1:4">
+      <c r="A2729"/>
+    </row>
+    <row r="2730" spans="1:4">
+      <c r="A2730"/>
+    </row>
+    <row r="2731" spans="1:4">
+      <c r="A2731"/>
+    </row>
+    <row r="2732" spans="1:4">
+      <c r="A2732"/>
+    </row>
+    <row r="2733" spans="1:4">
+      <c r="A2733"/>
+    </row>
+    <row r="2734" spans="1:4">
+      <c r="A2734"/>
+    </row>
+    <row r="2735" spans="1:4">
+      <c r="A2735"/>
+    </row>
+    <row r="2736" spans="1:4">
+      <c r="A2736"/>
+    </row>
+    <row r="2737" spans="1:4">
+      <c r="A2737"/>
+    </row>
+    <row r="2738" spans="1:4">
+      <c r="A2738"/>
+    </row>
+    <row r="2739" spans="1:4">
+      <c r="A2739"/>
+    </row>
+    <row r="2740" spans="1:4">
+      <c r="A2740"/>
+    </row>
+    <row r="2741" spans="1:4">
+      <c r="A2741"/>
+    </row>
+    <row r="2742" spans="1:4">
+      <c r="A2742"/>
+    </row>
+    <row r="2743" spans="1:4">
+      <c r="A2743"/>
+    </row>
+    <row r="2744" spans="1:4">
+      <c r="A2744"/>
+    </row>
+    <row r="2745" spans="1:4">
+      <c r="A2745"/>
+    </row>
+    <row r="2746" spans="1:4">
+      <c r="A2746"/>
+    </row>
+    <row r="2747" spans="1:4">
+      <c r="A2747"/>
+    </row>
+    <row r="2748" spans="1:4">
+      <c r="A2748"/>
+    </row>
+    <row r="2749" spans="1:4">
+      <c r="A2749"/>
+    </row>
+    <row r="2750" spans="1:4">
+      <c r="A2750"/>
+    </row>
+    <row r="2751" spans="1:4">
+      <c r="A2751"/>
+    </row>
+    <row r="2752" spans="1:4">
+      <c r="A2752"/>
+    </row>
+    <row r="2753" spans="1:4">
+      <c r="A2753"/>
+    </row>
+    <row r="2754" spans="1:4">
+      <c r="A2754"/>
+    </row>
+    <row r="2755" spans="1:4">
+      <c r="A2755"/>
+    </row>
+    <row r="2756" spans="1:4">
+      <c r="A2756"/>
+    </row>
+    <row r="2757" spans="1:4">
+      <c r="A2757"/>
+    </row>
+    <row r="2758" spans="1:4">
+      <c r="A2758"/>
+    </row>
+    <row r="2759" spans="1:4">
+      <c r="A2759"/>
+    </row>
+    <row r="2760" spans="1:4">
+      <c r="A2760"/>
+    </row>
+    <row r="2761" spans="1:4">
+      <c r="A2761"/>
+    </row>
+    <row r="2762" spans="1:4">
+      <c r="A2762"/>
+    </row>
+    <row r="2763" spans="1:4">
+      <c r="A2763"/>
+    </row>
+    <row r="2764" spans="1:4">
+      <c r="A2764"/>
+    </row>
+    <row r="2765" spans="1:4">
+      <c r="A2765"/>
+    </row>
+    <row r="2766" spans="1:4">
+      <c r="A2766"/>
+    </row>
+    <row r="2767" spans="1:4">
+      <c r="A2767"/>
+    </row>
+    <row r="2768" spans="1:4">
+      <c r="A2768"/>
+    </row>
+    <row r="2769" spans="1:4">
+      <c r="A2769"/>
+    </row>
+    <row r="2770" spans="1:4">
+      <c r="A2770"/>
+    </row>
+    <row r="2771" spans="1:4">
+      <c r="A2771"/>
+    </row>
+    <row r="2772" spans="1:4">
+      <c r="A2772"/>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+    </row>
+    <row r="2774" spans="1:4">
+      <c r="A2774"/>
+    </row>
+    <row r="2775" spans="1:4">
+      <c r="A2775"/>
+    </row>
+    <row r="2776" spans="1:4">
+      <c r="A2776"/>
+    </row>
+    <row r="2777" spans="1:4">
+      <c r="A2777"/>
+    </row>
+    <row r="2778" spans="1:4">
+      <c r="A2778"/>
+    </row>
+    <row r="2779" spans="1:4">
+      <c r="A2779"/>
+    </row>
+    <row r="2780" spans="1:4">
+      <c r="A2780"/>
+    </row>
+    <row r="2781" spans="1:4">
+      <c r="A2781"/>
+    </row>
+    <row r="2782" spans="1:4">
+      <c r="A2782"/>
+    </row>
+    <row r="2783" spans="1:4">
+      <c r="A2783"/>
+    </row>
+    <row r="2784" spans="1:4">
+      <c r="A2784"/>
+    </row>
+    <row r="2785" spans="1:4">
+      <c r="A2785"/>
+    </row>
+    <row r="2786" spans="1:4">
+      <c r="A2786"/>
+    </row>
+    <row r="2787" spans="1:4">
+      <c r="A2787"/>
+    </row>
+    <row r="2788" spans="1:4">
+      <c r="A2788"/>
+    </row>
+    <row r="2789" spans="1:4">
+      <c r="A2789"/>
+    </row>
+    <row r="2790" spans="1:4">
+      <c r="A2790"/>
+    </row>
+    <row r="2791" spans="1:4">
+      <c r="A2791"/>
+    </row>
+    <row r="2792" spans="1:4">
+      <c r="A2792"/>
+    </row>
+    <row r="2793" spans="1:4">
+      <c r="A2793"/>
+    </row>
+    <row r="2794" spans="1:4">
+      <c r="A2794"/>
+    </row>
+    <row r="2795" spans="1:4">
+      <c r="A2795"/>
+    </row>
+    <row r="2796" spans="1:4">
+      <c r="A2796"/>
+    </row>
+    <row r="2797" spans="1:4">
+      <c r="A2797"/>
+    </row>
+    <row r="2798" spans="1:4">
+      <c r="A2798"/>
+    </row>
+    <row r="2799" spans="1:4">
+      <c r="A2799"/>
+    </row>
+    <row r="2800" spans="1:4">
+      <c r="A2800"/>
+    </row>
+    <row r="2801" spans="1:4">
+      <c r="A2801"/>
+    </row>
+    <row r="2802" spans="1:4">
+      <c r="A2802"/>
+    </row>
+    <row r="2803" spans="1:4">
+      <c r="A2803"/>
+    </row>
+    <row r="2804" spans="1:4">
+      <c r="A2804"/>
+    </row>
+    <row r="2805" spans="1:4">
+      <c r="A2805"/>
+    </row>
+    <row r="2806" spans="1:4">
+      <c r="A2806"/>
+    </row>
+    <row r="2807" spans="1:4">
+      <c r="A2807"/>
+    </row>
+    <row r="2808" spans="1:4">
+      <c r="A2808"/>
+    </row>
+    <row r="2809" spans="1:4">
+      <c r="A2809"/>
+    </row>
+    <row r="2810" spans="1:4">
+      <c r="A2810"/>
+    </row>
+    <row r="2811" spans="1:4">
+      <c r="A2811"/>
+    </row>
+    <row r="2812" spans="1:4">
+      <c r="A2812"/>
+    </row>
+    <row r="2813" spans="1:4">
+      <c r="A2813"/>
+    </row>
+    <row r="2814" spans="1:4">
+      <c r="A2814"/>
+    </row>
+    <row r="2815" spans="1:4">
+      <c r="A2815"/>
+    </row>
+    <row r="2816" spans="1:4">
+      <c r="A2816"/>
+    </row>
+    <row r="2817" spans="1:4">
+      <c r="A2817"/>
+    </row>
+    <row r="2818" spans="1:4">
+      <c r="A2818"/>
+    </row>
+    <row r="2819" spans="1:4">
+      <c r="A2819"/>
+    </row>
+    <row r="2820" spans="1:4">
+      <c r="A2820"/>
+    </row>
+    <row r="2821" spans="1:4">
+      <c r="A2821"/>
+    </row>
+    <row r="2822" spans="1:4">
+      <c r="A2822"/>
+    </row>
+    <row r="2823" spans="1:4">
+      <c r="A2823"/>
+    </row>
+    <row r="2824" spans="1:4">
+      <c r="A2824"/>
+    </row>
+    <row r="2825" spans="1:4">
+      <c r="A2825"/>
+    </row>
+    <row r="2826" spans="1:4">
+      <c r="A2826"/>
+    </row>
+    <row r="2827" spans="1:4">
+      <c r="A2827"/>
+    </row>
+    <row r="2828" spans="1:4">
+      <c r="A2828"/>
+    </row>
+    <row r="2829" spans="1:4">
+      <c r="A2829"/>
+    </row>
+    <row r="2830" spans="1:4">
+      <c r="A2830"/>
+    </row>
+    <row r="2831" spans="1:4">
+      <c r="A2831"/>
+    </row>
+    <row r="2832" spans="1:4">
+      <c r="A2832"/>
+    </row>
+    <row r="2833" spans="1:4">
+      <c r="A2833"/>
+    </row>
+    <row r="2834" spans="1:4">
+      <c r="A2834"/>
+    </row>
+    <row r="2835" spans="1:4">
+      <c r="A2835"/>
+    </row>
+    <row r="2836" spans="1:4">
+      <c r="A2836"/>
+    </row>
+    <row r="2837" spans="1:4">
+      <c r="A2837"/>
+    </row>
+    <row r="2838" spans="1:4">
+      <c r="A2838"/>
+    </row>
+    <row r="2839" spans="1:4">
+      <c r="A2839"/>
+    </row>
+    <row r="2840" spans="1:4">
+      <c r="A2840"/>
+    </row>
+    <row r="2841" spans="1:4">
+      <c r="A2841"/>
+    </row>
+    <row r="2842" spans="1:4">
+      <c r="A2842"/>
+    </row>
+    <row r="2843" spans="1:4">
+      <c r="A2843"/>
+    </row>
+    <row r="2844" spans="1:4">
+      <c r="A2844"/>
+    </row>
+    <row r="2845" spans="1:4">
+      <c r="A2845"/>
+    </row>
+    <row r="2846" spans="1:4">
+      <c r="A2846"/>
+    </row>
+    <row r="2847" spans="1:4">
+      <c r="A2847"/>
+    </row>
+    <row r="2848" spans="1:4">
+      <c r="A2848"/>
+    </row>
+    <row r="2849" spans="1:4">
+      <c r="A2849"/>
+    </row>
+    <row r="2850" spans="1:4">
+      <c r="A2850"/>
+    </row>
+    <row r="2851" spans="1:4">
+      <c r="A2851"/>
+    </row>
+    <row r="2852" spans="1:4">
+      <c r="A2852"/>
+    </row>
+    <row r="2853" spans="1:4">
+      <c r="A2853"/>
+    </row>
+    <row r="2854" spans="1:4">
+      <c r="A2854"/>
+    </row>
+    <row r="2855" spans="1:4">
+      <c r="A2855"/>
+    </row>
+    <row r="2856" spans="1:4">
+      <c r="A2856"/>
+    </row>
+    <row r="2857" spans="1:4">
+      <c r="A2857"/>
+    </row>
+    <row r="2858" spans="1:4">
+      <c r="A2858"/>
+    </row>
+    <row r="2859" spans="1:4">
+      <c r="A2859"/>
+    </row>
+    <row r="2860" spans="1:4">
+      <c r="A2860"/>
+    </row>
+    <row r="2861" spans="1:4">
+      <c r="A2861"/>
+    </row>
+    <row r="2862" spans="1:4">
+      <c r="A2862"/>
+    </row>
+    <row r="2863" spans="1:4">
+      <c r="A2863"/>
+    </row>
+    <row r="2864" spans="1:4">
+      <c r="A2864"/>
+    </row>
+    <row r="2865" spans="1:4">
+      <c r="A2865"/>
+    </row>
+    <row r="2866" spans="1:4">
+      <c r="A2866"/>
+    </row>
+    <row r="2867" spans="1:4">
+      <c r="A2867"/>
+    </row>
+    <row r="2868" spans="1:4">
+      <c r="A2868"/>
+    </row>
+    <row r="2869" spans="1:4">
+      <c r="A2869"/>
+    </row>
+    <row r="2870" spans="1:4">
+      <c r="A2870"/>
+    </row>
+    <row r="2871" spans="1:4">
+      <c r="A2871"/>
+    </row>
+    <row r="2872" spans="1:4">
+      <c r="A2872"/>
+    </row>
+    <row r="2873" spans="1:4">
+      <c r="A2873"/>
+    </row>
+    <row r="2874" spans="1:4">
+      <c r="A2874"/>
+    </row>
+    <row r="2875" spans="1:4">
+      <c r="A2875"/>
+    </row>
+    <row r="2876" spans="1:4">
+      <c r="A2876"/>
+    </row>
+    <row r="2877" spans="1:4">
+      <c r="A2877"/>
+    </row>
+    <row r="2878" spans="1:4">
+      <c r="A2878"/>
+    </row>
+    <row r="2879" spans="1:4">
+      <c r="A2879"/>
+    </row>
+    <row r="2880" spans="1:4">
+      <c r="A2880"/>
+    </row>
+    <row r="2881" spans="1:4">
+      <c r="A2881"/>
+    </row>
+    <row r="2882" spans="1:4">
+      <c r="A2882"/>
+    </row>
+    <row r="2883" spans="1:4">
+      <c r="A2883"/>
+    </row>
+    <row r="2884" spans="1:4">
+      <c r="A2884"/>
+    </row>
+    <row r="2885" spans="1:4">
+      <c r="A2885"/>
+    </row>
+    <row r="2886" spans="1:4">
+      <c r="A2886"/>
+    </row>
+    <row r="2887" spans="1:4">
+      <c r="A2887"/>
+    </row>
+    <row r="2888" spans="1:4">
+      <c r="A2888"/>
+    </row>
+    <row r="2889" spans="1:4">
+      <c r="A2889"/>
+    </row>
+    <row r="2890" spans="1:4">
+      <c r="A2890"/>
+    </row>
+    <row r="2891" spans="1:4">
+      <c r="A2891"/>
+    </row>
+    <row r="2892" spans="1:4">
+      <c r="A2892"/>
+    </row>
+    <row r="2893" spans="1:4">
+      <c r="A2893"/>
+    </row>
+    <row r="2894" spans="1:4">
+      <c r="A2894"/>
+    </row>
+    <row r="2895" spans="1:4">
+      <c r="A2895"/>
+    </row>
+    <row r="2896" spans="1:4">
+      <c r="A2896"/>
+    </row>
+    <row r="2897" spans="1:4">
+      <c r="A2897"/>
+    </row>
+    <row r="2898" spans="1:4">
+      <c r="A2898"/>
+    </row>
+    <row r="2899" spans="1:4">
+      <c r="A2899"/>
+    </row>
+    <row r="2900" spans="1:4">
+      <c r="A2900"/>
+    </row>
+    <row r="2901" spans="1:4">
+      <c r="A2901"/>
+    </row>
+    <row r="2902" spans="1:4">
+      <c r="A2902"/>
+    </row>
+    <row r="2903" spans="1:4">
+      <c r="A2903"/>
+    </row>
+    <row r="2904" spans="1:4">
+      <c r="A2904"/>
+    </row>
+    <row r="2905" spans="1:4">
+      <c r="A2905"/>
+    </row>
+    <row r="2906" spans="1:4">
+      <c r="A2906"/>
+    </row>
+    <row r="2907" spans="1:4">
+      <c r="A2907"/>
+    </row>
+    <row r="2908" spans="1:4">
+      <c r="A2908"/>
+    </row>
+    <row r="2909" spans="1:4">
+      <c r="A2909"/>
+    </row>
+    <row r="2910" spans="1:4">
+      <c r="A2910"/>
+    </row>
+    <row r="2911" spans="1:4">
+      <c r="A2911"/>
+    </row>
+    <row r="2912" spans="1:4">
+      <c r="A2912"/>
+    </row>
+    <row r="2913" spans="1:4">
+      <c r="A2913"/>
+    </row>
+    <row r="2914" spans="1:4">
+      <c r="A2914"/>
+    </row>
+    <row r="2915" spans="1:4">
+      <c r="A2915"/>
+    </row>
+    <row r="2916" spans="1:4">
+      <c r="A2916"/>
+    </row>
+    <row r="2917" spans="1:4">
+      <c r="A2917"/>
+    </row>
+    <row r="2918" spans="1:4">
+      <c r="A2918"/>
+    </row>
+    <row r="2919" spans="1:4">
+      <c r="A2919"/>
+    </row>
+    <row r="2920" spans="1:4">
+      <c r="A2920"/>
+    </row>
+    <row r="2921" spans="1:4">
+      <c r="A2921"/>
+    </row>
+    <row r="2922" spans="1:4">
+      <c r="A2922"/>
+    </row>
+    <row r="2923" spans="1:4">
+      <c r="A2923"/>
+    </row>
+    <row r="2924" spans="1:4">
+      <c r="A2924"/>
+    </row>
+    <row r="2925" spans="1:4">
+      <c r="A2925"/>
+    </row>
+    <row r="2926" spans="1:4">
+      <c r="A2926"/>
+    </row>
+    <row r="2927" spans="1:4">
+      <c r="A2927"/>
+    </row>
+    <row r="2928" spans="1:4">
+      <c r="A2928"/>
+    </row>
+    <row r="2929" spans="1:4">
+      <c r="A2929"/>
+    </row>
+    <row r="2930" spans="1:4">
+      <c r="A2930"/>
+    </row>
+    <row r="2931" spans="1:4">
+      <c r="A2931"/>
+    </row>
+    <row r="2932" spans="1:4">
+      <c r="A2932"/>
+    </row>
+    <row r="2933" spans="1:4">
+      <c r="A2933"/>
+    </row>
+    <row r="2934" spans="1:4">
+      <c r="A2934"/>
+    </row>
+    <row r="2935" spans="1:4">
+      <c r="A2935"/>
+    </row>
+    <row r="2936" spans="1:4">
+      <c r="A2936"/>
+    </row>
+    <row r="2937" spans="1:4">
+      <c r="A2937"/>
+    </row>
+    <row r="2938" spans="1:4">
+      <c r="A2938"/>
+    </row>
+    <row r="2939" spans="1:4">
+      <c r="A2939"/>
+    </row>
+    <row r="2940" spans="1:4">
+      <c r="A2940"/>
+    </row>
+    <row r="2941" spans="1:4">
+      <c r="A2941"/>
+    </row>
+    <row r="2942" spans="1:4">
+      <c r="A2942"/>
+    </row>
+    <row r="2943" spans="1:4">
+      <c r="A2943"/>
+    </row>
+    <row r="2944" spans="1:4">
+      <c r="A2944"/>
+    </row>
+    <row r="2945" spans="1:4">
+      <c r="A2945"/>
+    </row>
+    <row r="2946" spans="1:4">
+      <c r="A2946"/>
+    </row>
+    <row r="2947" spans="1:4">
+      <c r="A2947"/>
+    </row>
+    <row r="2948" spans="1:4">
+      <c r="A2948"/>
+    </row>
+    <row r="2949" spans="1:4">
+      <c r="A2949"/>
+    </row>
+    <row r="2950" spans="1:4">
+      <c r="A2950"/>
+    </row>
+    <row r="2951" spans="1:4">
+      <c r="A2951"/>
+    </row>
+    <row r="2952" spans="1:4">
+      <c r="A2952"/>
+    </row>
+    <row r="2953" spans="1:4">
+      <c r="A2953"/>
+    </row>
+    <row r="2954" spans="1:4">
+      <c r="A2954"/>
+    </row>
+    <row r="2955" spans="1:4">
+      <c r="A2955"/>
+    </row>
+    <row r="2956" spans="1:4">
+      <c r="A2956"/>
+    </row>
+    <row r="2957" spans="1:4">
+      <c r="A2957"/>
+    </row>
+    <row r="2958" spans="1:4">
+      <c r="A2958"/>
+    </row>
+    <row r="2959" spans="1:4">
+      <c r="A2959"/>
+    </row>
+    <row r="2960" spans="1:4">
+      <c r="A2960"/>
+    </row>
+    <row r="2961" spans="1:4">
+      <c r="A2961"/>
+    </row>
+    <row r="2962" spans="1:4">
+      <c r="A2962"/>
+    </row>
+    <row r="2963" spans="1:4">
+      <c r="A2963"/>
+    </row>
+    <row r="2964" spans="1:4">
+      <c r="A2964"/>
+    </row>
+    <row r="2965" spans="1:4">
+      <c r="A2965"/>
+    </row>
+    <row r="2966" spans="1:4">
+      <c r="A2966"/>
+    </row>
+    <row r="2967" spans="1:4">
+      <c r="A2967"/>
+    </row>
+    <row r="2968" spans="1:4">
+      <c r="A2968"/>
+    </row>
+    <row r="2969" spans="1:4">
+      <c r="A2969"/>
+    </row>
+    <row r="2970" spans="1:4">
+      <c r="A2970"/>
+    </row>
+    <row r="2971" spans="1:4">
+      <c r="A2971"/>
+    </row>
+    <row r="2972" spans="1:4">
+      <c r="A2972"/>
+    </row>
+    <row r="2973" spans="1:4">
+      <c r="A2973"/>
+    </row>
+    <row r="2974" spans="1:4">
+      <c r="A2974"/>
+    </row>
+    <row r="2975" spans="1:4">
+      <c r="A2975"/>
+    </row>
+    <row r="2976" spans="1:4">
+      <c r="A2976"/>
+    </row>
+    <row r="2977" spans="1:4">
+      <c r="A2977"/>
+    </row>
+    <row r="2978" spans="1:4">
+      <c r="A2978"/>
+    </row>
+    <row r="2979" spans="1:4">
+      <c r="A2979"/>
+    </row>
+    <row r="2980" spans="1:4">
+      <c r="A2980"/>
+    </row>
+    <row r="2981" spans="1:4">
+      <c r="A2981"/>
+    </row>
+    <row r="2982" spans="1:4">
+      <c r="A2982"/>
+    </row>
+    <row r="2983" spans="1:4">
+      <c r="A2983"/>
+    </row>
+    <row r="2984" spans="1:4">
+      <c r="A2984"/>
+    </row>
+    <row r="2985" spans="1:4">
+      <c r="A2985"/>
+    </row>
+    <row r="2986" spans="1:4">
+      <c r="A2986"/>
+    </row>
+    <row r="2987" spans="1:4">
+      <c r="A2987"/>
+    </row>
+    <row r="2988" spans="1:4">
+      <c r="A2988"/>
+    </row>
+    <row r="2989" spans="1:4">
+      <c r="A2989"/>
+    </row>
+    <row r="2990" spans="1:4">
+      <c r="A2990"/>
+    </row>
+    <row r="2991" spans="1:4">
+      <c r="A2991"/>
+    </row>
+    <row r="2992" spans="1:4">
+      <c r="A2992"/>
+    </row>
+    <row r="2993" spans="1:4">
+      <c r="A2993"/>
+    </row>
+    <row r="2994" spans="1:4">
+      <c r="A2994"/>
+    </row>
+    <row r="2995" spans="1:4">
+      <c r="A2995"/>
+    </row>
+    <row r="2996" spans="1:4">
+      <c r="A2996"/>
+    </row>
+    <row r="2997" spans="1:4">
+      <c r="A2997"/>
+    </row>
+    <row r="2998" spans="1:4">
+      <c r="A2998"/>
+    </row>
+    <row r="2999" spans="1:4">
+      <c r="A2999"/>
+    </row>
+    <row r="3000" spans="1:4">
+      <c r="A3000"/>
+    </row>
+    <row r="3001" spans="1:4">
+      <c r="A3001"/>
+    </row>
+    <row r="3002" spans="1:4">
+      <c r="A3002"/>
+    </row>
+    <row r="3003" spans="1:4">
+      <c r="A3003"/>
+    </row>
+    <row r="3004" spans="1:4">
+      <c r="A3004"/>
+    </row>
+    <row r="3005" spans="1:4">
+      <c r="A3005"/>
+    </row>
+    <row r="3006" spans="1:4">
+      <c r="A3006"/>
+    </row>
+    <row r="3007" spans="1:4">
+      <c r="A3007"/>
+    </row>
+    <row r="3008" spans="1:4">
+      <c r="A3008"/>
+    </row>
+    <row r="3009" spans="1:4">
+      <c r="A3009"/>
+    </row>
+    <row r="3010" spans="1:4">
+      <c r="A3010"/>
+    </row>
+    <row r="3011" spans="1:4">
+      <c r="A3011"/>
+    </row>
+    <row r="3012" spans="1:4">
+      <c r="A3012"/>
+    </row>
+    <row r="3013" spans="1:4">
+      <c r="A3013"/>
+    </row>
+    <row r="3014" spans="1:4">
+      <c r="A3014"/>
+    </row>
+    <row r="3015" spans="1:4">
+      <c r="A3015"/>
+    </row>
+    <row r="3016" spans="1:4">
+      <c r="A3016"/>
+    </row>
+    <row r="3017" spans="1:4">
+      <c r="A3017"/>
+    </row>
+    <row r="3018" spans="1:4">
+      <c r="A3018"/>
+    </row>
+    <row r="3019" spans="1:4">
+      <c r="A3019"/>
+    </row>
+    <row r="3020" spans="1:4">
+      <c r="A3020"/>
+    </row>
+    <row r="3021" spans="1:4">
+      <c r="A3021"/>
+    </row>
+    <row r="3022" spans="1:4">
+      <c r="A3022"/>
+    </row>
+    <row r="3023" spans="1:4">
+      <c r="A3023"/>
+    </row>
+    <row r="3024" spans="1:4">
+      <c r="A3024"/>
+    </row>
+    <row r="3025" spans="1:4">
+      <c r="A3025"/>
+    </row>
+    <row r="3026" spans="1:4">
+      <c r="A3026"/>
+    </row>
+    <row r="3027" spans="1:4">
+      <c r="A3027"/>
+    </row>
+    <row r="3028" spans="1:4">
+      <c r="A3028"/>
+    </row>
+    <row r="3029" spans="1:4">
+      <c r="A3029"/>
+    </row>
+    <row r="3030" spans="1:4">
+      <c r="A3030"/>
+    </row>
+    <row r="3031" spans="1:4">
+      <c r="A3031"/>
+    </row>
+    <row r="3032" spans="1:4">
+      <c r="A3032"/>
+    </row>
+    <row r="3033" spans="1:4">
+      <c r="A3033"/>
+    </row>
+    <row r="3034" spans="1:4">
+      <c r="A3034"/>
+    </row>
+    <row r="3035" spans="1:4">
+      <c r="A3035"/>
+    </row>
+    <row r="3036" spans="1:4">
+      <c r="A3036"/>
+    </row>
+    <row r="3037" spans="1:4">
+      <c r="A3037"/>
+    </row>
+    <row r="3038" spans="1:4">
+      <c r="A3038"/>
+    </row>
+    <row r="3039" spans="1:4">
+      <c r="A3039"/>
+    </row>
+    <row r="3040" spans="1:4">
+      <c r="A3040"/>
+    </row>
+    <row r="3041" spans="1:4">
+      <c r="A3041"/>
+    </row>
+    <row r="3042" spans="1:4">
+      <c r="A3042"/>
+    </row>
+    <row r="3043" spans="1:4">
+      <c r="A3043"/>
+    </row>
+    <row r="3044" spans="1:4">
+      <c r="A3044"/>
+    </row>
+    <row r="3045" spans="1:4">
+      <c r="A3045"/>
+    </row>
+    <row r="3046" spans="1:4">
+      <c r="A3046"/>
+    </row>
+    <row r="3047" spans="1:4">
+      <c r="A3047"/>
+    </row>
+    <row r="3048" spans="1:4">
+      <c r="A3048"/>
+    </row>
+    <row r="3049" spans="1:4">
+      <c r="A3049"/>
+    </row>
+    <row r="3050" spans="1:4">
+      <c r="A3050"/>
+    </row>
+    <row r="3051" spans="1:4">
+      <c r="A3051"/>
+    </row>
+    <row r="3052" spans="1:4">
+      <c r="A3052"/>
+    </row>
+    <row r="3053" spans="1:4">
+      <c r="A3053"/>
+    </row>
+    <row r="3054" spans="1:4">
+      <c r="A3054"/>
+    </row>
+    <row r="3055" spans="1:4">
+      <c r="A3055"/>
+    </row>
+    <row r="3056" spans="1:4">
+      <c r="A3056"/>
+    </row>
+    <row r="3057" spans="1:4">
+      <c r="A3057"/>
+    </row>
+    <row r="3058" spans="1:4">
+      <c r="A3058"/>
+    </row>
+    <row r="3059" spans="1:4">
+      <c r="A3059"/>
+    </row>
+    <row r="3060" spans="1:4">
+      <c r="A3060"/>
+    </row>
+    <row r="3061" spans="1:4">
+      <c r="A3061"/>
+    </row>
+    <row r="3062" spans="1:4">
+      <c r="A3062"/>
+    </row>
+    <row r="3063" spans="1:4">
+      <c r="A3063"/>
+    </row>
+    <row r="3064" spans="1:4">
+      <c r="A3064"/>
+    </row>
+    <row r="3065" spans="1:4">
+      <c r="A3065"/>
+    </row>
+    <row r="3066" spans="1:4">
+      <c r="A3066"/>
+    </row>
+    <row r="3067" spans="1:4">
+      <c r="A3067"/>
+    </row>
+    <row r="3068" spans="1:4">
+      <c r="A3068"/>
+    </row>
+    <row r="3069" spans="1:4">
+      <c r="A3069"/>
+    </row>
+    <row r="3070" spans="1:4">
+      <c r="A3070"/>
+    </row>
+    <row r="3071" spans="1:4">
+      <c r="A3071"/>
+    </row>
+    <row r="3072" spans="1:4">
+      <c r="A3072"/>
+    </row>
+    <row r="3073" spans="1:4">
+      <c r="A3073"/>
+    </row>
+    <row r="3074" spans="1:4">
+      <c r="A3074"/>
+    </row>
+    <row r="3075" spans="1:4">
+      <c r="A3075"/>
+    </row>
+    <row r="3076" spans="1:4">
+      <c r="A3076"/>
+    </row>
+    <row r="3077" spans="1:4">
+      <c r="A3077"/>
+    </row>
+    <row r="3078" spans="1:4">
+      <c r="A3078"/>
+    </row>
+    <row r="3079" spans="1:4">
+      <c r="A3079"/>
+    </row>
+    <row r="3080" spans="1:4">
+      <c r="A3080"/>
+    </row>
+    <row r="3081" spans="1:4">
+      <c r="A3081"/>
+    </row>
+    <row r="3082" spans="1:4">
+      <c r="A3082"/>
+    </row>
+    <row r="3083" spans="1:4">
+      <c r="A3083"/>
+    </row>
+    <row r="3084" spans="1:4">
+      <c r="A3084"/>
+    </row>
+    <row r="3085" spans="1:4">
+      <c r="A3085"/>
+    </row>
+    <row r="3086" spans="1:4">
+      <c r="A3086"/>
+    </row>
+    <row r="3087" spans="1:4">
+      <c r="A3087"/>
+    </row>
+    <row r="3088" spans="1:4">
+      <c r="A3088"/>
+    </row>
+    <row r="3089" spans="1:4">
+      <c r="A3089"/>
+    </row>
+    <row r="3090" spans="1:4">
+      <c r="A3090"/>
+    </row>
+    <row r="3091" spans="1:4">
+      <c r="A3091"/>
+    </row>
+    <row r="3092" spans="1:4">
+      <c r="A3092"/>
+    </row>
+    <row r="3093" spans="1:4">
+      <c r="A3093"/>
+    </row>
+    <row r="3094" spans="1:4">
+      <c r="A3094"/>
+    </row>
+    <row r="3095" spans="1:4">
+      <c r="A3095"/>
+    </row>
+    <row r="3096" spans="1:4">
+      <c r="A3096"/>
+    </row>
+    <row r="3097" spans="1:4">
+      <c r="A3097"/>
+    </row>
+    <row r="3098" spans="1:4">
+      <c r="A3098"/>
+    </row>
+    <row r="3099" spans="1:4">
+      <c r="A3099"/>
+    </row>
+    <row r="3100" spans="1:4">
+      <c r="A3100"/>
+    </row>
+    <row r="3101" spans="1:4">
+      <c r="A3101"/>
+    </row>
+    <row r="3102" spans="1:4">
+      <c r="A3102"/>
+    </row>
+    <row r="3103" spans="1:4">
+      <c r="A3103"/>
+    </row>
+    <row r="3104" spans="1:4">
+      <c r="A3104"/>
+    </row>
+    <row r="3105" spans="1:4">
+      <c r="A3105"/>
+    </row>
+    <row r="3106" spans="1:4">
+      <c r="A3106"/>
+    </row>
+    <row r="3107" spans="1:4">
+      <c r="A3107"/>
+    </row>
+    <row r="3108" spans="1:4">
+      <c r="A3108"/>
+    </row>
+    <row r="3109" spans="1:4">
+      <c r="A3109"/>
+    </row>
+    <row r="3110" spans="1:4">
+      <c r="A3110"/>
+    </row>
+    <row r="3111" spans="1:4">
+      <c r="A3111"/>
+    </row>
+    <row r="3112" spans="1:4">
+      <c r="A3112"/>
+    </row>
+    <row r="3113" spans="1:4">
+      <c r="A3113"/>
+    </row>
+    <row r="3114" spans="1:4">
+      <c r="A3114"/>
+    </row>
+    <row r="3115" spans="1:4">
+      <c r="A3115"/>
+    </row>
+    <row r="3116" spans="1:4">
+      <c r="A3116"/>
+    </row>
+    <row r="3117" spans="1:4">
+      <c r="A3117"/>
+    </row>
+    <row r="3118" spans="1:4">
+      <c r="A3118"/>
+    </row>
+    <row r="3119" spans="1:4">
+      <c r="A3119"/>
+    </row>
+    <row r="3120" spans="1:4">
+      <c r="A3120"/>
+    </row>
+    <row r="3121" spans="1:4">
+      <c r="A3121"/>
+    </row>
+    <row r="3122" spans="1:4">
+      <c r="A3122"/>
+    </row>
+    <row r="3123" spans="1:4">
+      <c r="A3123"/>
+    </row>
+    <row r="3124" spans="1:4">
+      <c r="A3124"/>
+    </row>
+    <row r="3125" spans="1:4">
+      <c r="A3125"/>
+    </row>
+    <row r="3126" spans="1:4">
+      <c r="A3126"/>
+    </row>
+    <row r="3127" spans="1:4">
+      <c r="A3127"/>
+    </row>
+    <row r="3128" spans="1:4">
+      <c r="A3128"/>
+    </row>
+    <row r="3129" spans="1:4">
+      <c r="A3129"/>
+    </row>
+    <row r="3130" spans="1:4">
+      <c r="A3130"/>
+    </row>
+    <row r="3131" spans="1:4">
+      <c r="A3131"/>
+    </row>
+    <row r="3132" spans="1:4">
+      <c r="A3132"/>
+    </row>
+    <row r="3133" spans="1:4">
+      <c r="A3133"/>
+    </row>
+    <row r="3134" spans="1:4">
+      <c r="A3134"/>
+    </row>
+    <row r="3135" spans="1:4">
+      <c r="A3135"/>
+    </row>
+    <row r="3136" spans="1:4">
+      <c r="A3136"/>
+    </row>
+    <row r="3137" spans="1:4">
+      <c r="A3137"/>
+    </row>
+    <row r="3138" spans="1:4">
+      <c r="A3138"/>
+    </row>
+    <row r="3139" spans="1:4">
+      <c r="A3139"/>
+    </row>
+    <row r="3140" spans="1:4">
+      <c r="A3140"/>
+    </row>
+    <row r="3141" spans="1:4">
+      <c r="A3141"/>
+    </row>
+    <row r="3142" spans="1:4">
+      <c r="A3142"/>
+    </row>
+    <row r="3143" spans="1:4">
+      <c r="A3143"/>
+    </row>
+    <row r="3144" spans="1:4">
+      <c r="A3144"/>
+    </row>
+    <row r="3145" spans="1:4">
+      <c r="A3145"/>
+    </row>
+    <row r="3146" spans="1:4">
+      <c r="A3146"/>
+    </row>
+    <row r="3147" spans="1:4">
+      <c r="A3147"/>
+    </row>
+    <row r="3148" spans="1:4">
+      <c r="A3148"/>
+    </row>
+    <row r="3149" spans="1:4">
+      <c r="A3149"/>
+    </row>
+    <row r="3150" spans="1:4">
+      <c r="A3150"/>
+    </row>
+    <row r="3151" spans="1:4">
+      <c r="A3151"/>
+    </row>
+    <row r="3152" spans="1:4">
+      <c r="A3152"/>
+    </row>
+    <row r="3153" spans="1:4">
+      <c r="A3153"/>
+    </row>
+    <row r="3154" spans="1:4">
+      <c r="A3154"/>
+    </row>
+    <row r="3155" spans="1:4">
+      <c r="A3155"/>
+    </row>
+    <row r="3156" spans="1:4">
+      <c r="A3156"/>
+    </row>
+    <row r="3157" spans="1:4">
+      <c r="A3157"/>
+    </row>
+    <row r="3158" spans="1:4">
+      <c r="A3158"/>
+    </row>
+    <row r="3159" spans="1:4">
+      <c r="A3159"/>
+    </row>
+    <row r="3160" spans="1:4">
+      <c r="A3160"/>
+    </row>
+    <row r="3161" spans="1:4">
+      <c r="A3161"/>
+    </row>
+    <row r="3162" spans="1:4">
+      <c r="A3162"/>
+    </row>
+    <row r="3163" spans="1:4">
+      <c r="A3163"/>
+    </row>
+    <row r="3164" spans="1:4">
+      <c r="A3164"/>
+    </row>
+    <row r="3165" spans="1:4">
+      <c r="A3165"/>
+    </row>
+    <row r="3166" spans="1:4">
+      <c r="A3166"/>
+    </row>
+    <row r="3167" spans="1:4">
+      <c r="A3167"/>
+    </row>
+    <row r="3168" spans="1:4">
+      <c r="A3168"/>
+    </row>
+    <row r="3169" spans="1:4">
+      <c r="A3169"/>
+    </row>
+    <row r="3170" spans="1:4">
+      <c r="A3170"/>
+    </row>
+    <row r="3171" spans="1:4">
+      <c r="A3171"/>
+    </row>
+    <row r="3172" spans="1:4">
+      <c r="A3172"/>
+    </row>
+    <row r="3173" spans="1:4">
+      <c r="A3173"/>
+    </row>
+    <row r="3174" spans="1:4">
+      <c r="A3174"/>
+    </row>
+    <row r="3175" spans="1:4">
+      <c r="A3175"/>
+    </row>
+    <row r="3176" spans="1:4">
+      <c r="A3176"/>
+    </row>
+    <row r="3177" spans="1:4">
+      <c r="A3177"/>
+    </row>
+    <row r="3178" spans="1:4">
+      <c r="A3178"/>
+    </row>
+    <row r="3179" spans="1:4">
+      <c r="A3179"/>
+    </row>
+    <row r="3180" spans="1:4">
+      <c r="A3180"/>
+    </row>
+    <row r="3181" spans="1:4">
+      <c r="A3181"/>
+    </row>
+    <row r="3182" spans="1:4">
+      <c r="A3182"/>
+    </row>
+    <row r="3183" spans="1:4">
+      <c r="A3183"/>
+    </row>
+    <row r="3184" spans="1:4">
+      <c r="A3184"/>
+    </row>
+    <row r="3185" spans="1:4">
+      <c r="A3185"/>
+    </row>
+    <row r="3186" spans="1:4">
+      <c r="A3186"/>
+    </row>
+    <row r="3187" spans="1:4">
+      <c r="A3187"/>
+    </row>
+    <row r="3188" spans="1:4">
+      <c r="A3188"/>
+    </row>
+    <row r="3189" spans="1:4">
+      <c r="A3189"/>
+    </row>
+    <row r="3190" spans="1:4">
+      <c r="A3190"/>
+    </row>
+    <row r="3191" spans="1:4">
+      <c r="A3191"/>
+    </row>
+    <row r="3192" spans="1:4">
+      <c r="A3192"/>
+    </row>
+    <row r="3193" spans="1:4">
+      <c r="A3193"/>
+    </row>
+    <row r="3194" spans="1:4">
+      <c r="A3194"/>
+    </row>
+    <row r="3195" spans="1:4">
+      <c r="A3195"/>
+    </row>
+    <row r="3196" spans="1:4">
+      <c r="A3196"/>
+    </row>
+    <row r="3197" spans="1:4">
+      <c r="A3197"/>
+    </row>
+    <row r="3198" spans="1:4">
+      <c r="A3198"/>
+    </row>
+    <row r="3199" spans="1:4">
+      <c r="A3199"/>
+    </row>
+    <row r="3200" spans="1:4">
+      <c r="A3200"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
